--- a/trunk/src/Grille_evaluation_STI2D_projet.xlsx
+++ b/trunk/src/Grille_evaluation_STI2D_projet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="10920" windowHeight="10740"/>
+    <workbookView xWindow="-15" yWindow="45" windowWidth="10920" windowHeight="10680"/>
   </bookViews>
   <sheets>
     <sheet name="Identification" sheetId="2" r:id="rId1"/>
@@ -1341,7 +1341,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1749,11 +1749,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1877,15 +1948,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -1898,8 +1960,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1907,8 +1983,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -1934,49 +2050,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1988,29 +2061,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2027,132 +2077,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="71">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF9900"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF9900"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF9900"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF9900"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
+  <dxfs count="54">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2751,36 +2748,6 @@
         <color theme="0" tint="-0.34998626667073579"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF9900"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF9900"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3090,7 +3057,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:E9"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3103,92 +3070,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="84"/>
     </row>
     <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="102" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="D3" s="37" t="s">
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="99" t="s">
         <v>89</v>
       </c>
+      <c r="E3" s="103"/>
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="99" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
+      <c r="E4" s="103"/>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="104"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="106"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="47"/>
-    </row>
-    <row r="7" spans="1:5" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="98"/>
+    </row>
+    <row r="7" spans="1:5" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="92"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="94"/>
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="47"/>
-    </row>
-    <row r="9" spans="1:5" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="98"/>
+    </row>
+    <row r="9" spans="1:5" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="92"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="94"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="47"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="86"/>
     </row>
     <row r="11" spans="1:5" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="91"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="47"/>
-    </row>
-    <row r="13" spans="1:5" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="86"/>
+    </row>
+    <row r="13" spans="1:5" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="92"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3203,7 +3191,7 @@
     <mergeCell ref="A11:E11"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="84" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" orientation="portrait" horizontalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3212,8 +3200,8 @@
   <dimension ref="A1:U55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
+      <pane ySplit="3" topLeftCell="A38" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3236,30 +3224,30 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
       <c r="J2" s="31"/>
-      <c r="K2" s="66" t="s">
+      <c r="K2" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="23" t="s">
         <v>29</v>
       </c>
@@ -3279,7 +3267,7 @@
         <v>30</v>
       </c>
       <c r="J3" s="32"/>
-      <c r="K3" s="66"/>
+      <c r="K3" s="48"/>
       <c r="L3" s="5" t="s">
         <v>66</v>
       </c>
@@ -3297,25 +3285,25 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="A4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
       <c r="J4" s="33"/>
       <c r="S4" s="7"/>
     </row>
     <row r="5" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="57" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -3372,8 +3360,8 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="60"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
@@ -3430,8 +3418,8 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="9" t="s">
         <v>3</v>
       </c>
@@ -3488,8 +3476,8 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="9" t="s">
         <v>4</v>
       </c>
@@ -3546,8 +3534,8 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="58"/>
-      <c r="B9" s="61"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="16" t="s">
         <v>33</v>
       </c>
@@ -3606,10 +3594,10 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="57" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -3668,8 +3656,8 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="60"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="9" t="s">
         <v>36</v>
       </c>
@@ -3728,8 +3716,8 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="60"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="9" t="s">
         <v>37</v>
       </c>
@@ -3786,8 +3774,8 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="9" t="s">
         <v>38</v>
       </c>
@@ -3844,8 +3832,8 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="60"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="9" t="s">
         <v>39</v>
       </c>
@@ -3900,8 +3888,8 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
-      <c r="B15" s="60"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="9" t="s">
         <v>40</v>
       </c>
@@ -3956,8 +3944,8 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="58"/>
-      <c r="B16" s="61"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="16" t="s">
         <v>6</v>
       </c>
@@ -4012,10 +4000,10 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="57" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -4072,8 +4060,8 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="60"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
@@ -4128,8 +4116,8 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="9" t="s">
         <v>44</v>
       </c>
@@ -4184,8 +4172,8 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
-      <c r="B20" s="61"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="16" t="s">
         <v>45</v>
       </c>
@@ -4240,17 +4228,17 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
       <c r="J21" s="33"/>
       <c r="K21" s="27" t="str">
         <f t="shared" si="1"/>
@@ -4294,10 +4282,10 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="57" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -4354,8 +4342,8 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="60"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="9" t="s">
         <v>10</v>
       </c>
@@ -4410,8 +4398,8 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="60"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="9" t="s">
         <v>11</v>
       </c>
@@ -4466,8 +4454,8 @@
       </c>
     </row>
     <row r="25" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
-      <c r="B25" s="61"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="59"/>
       <c r="C25" s="16" t="s">
         <v>12</v>
       </c>
@@ -4522,10 +4510,10 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="57" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="12" t="s">
@@ -4582,8 +4570,8 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
-      <c r="B27" s="60"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="58"/>
       <c r="C27" s="9" t="s">
         <v>14</v>
       </c>
@@ -4640,8 +4628,8 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
-      <c r="B28" s="60"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="58"/>
       <c r="C28" s="9" t="s">
         <v>15</v>
       </c>
@@ -4696,8 +4684,8 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="58"/>
-      <c r="B29" s="61"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="16" t="s">
         <v>50</v>
       </c>
@@ -4713,7 +4701,7 @@
       </c>
       <c r="J29" s="32"/>
       <c r="K29" s="27" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q29&gt;0,$B$53,IF(AND(R29=0,L29&gt;0),$C$53,""))</f>
         <v/>
       </c>
       <c r="L29" s="6">
@@ -4754,10 +4742,10 @@
       </c>
     </row>
     <row r="30" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="57" t="s">
         <v>52</v>
       </c>
       <c r="C30" s="12" t="s">
@@ -4814,8 +4802,8 @@
       </c>
     </row>
     <row r="31" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
-      <c r="B31" s="60"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="58"/>
       <c r="C31" s="9" t="s">
         <v>53</v>
       </c>
@@ -4870,8 +4858,8 @@
       </c>
     </row>
     <row r="32" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
-      <c r="B32" s="60"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="58"/>
       <c r="C32" s="9" t="s">
         <v>37</v>
       </c>
@@ -4926,8 +4914,8 @@
       </c>
     </row>
     <row r="33" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="58"/>
-      <c r="B33" s="61"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="59"/>
       <c r="C33" s="16" t="s">
         <v>45</v>
       </c>
@@ -4982,17 +4970,17 @@
       </c>
     </row>
     <row r="34" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
       <c r="J34" s="33"/>
       <c r="K34" s="27" t="str">
         <f t="shared" si="1"/>
@@ -5036,10 +5024,10 @@
       </c>
     </row>
     <row r="35" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="57" t="s">
         <v>55</v>
       </c>
       <c r="C35" s="12" t="s">
@@ -5096,8 +5084,8 @@
       </c>
     </row>
     <row r="36" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
-      <c r="B36" s="60"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="58"/>
       <c r="C36" s="9" t="s">
         <v>19</v>
       </c>
@@ -5154,8 +5142,8 @@
       </c>
     </row>
     <row r="37" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
-      <c r="B37" s="60"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="58"/>
       <c r="C37" s="9" t="s">
         <v>20</v>
       </c>
@@ -5212,8 +5200,8 @@
       </c>
     </row>
     <row r="38" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
-      <c r="B38" s="60"/>
+      <c r="A38" s="55"/>
+      <c r="B38" s="58"/>
       <c r="C38" s="9" t="s">
         <v>21</v>
       </c>
@@ -5268,8 +5256,8 @@
       </c>
     </row>
     <row r="39" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="58"/>
-      <c r="B39" s="61"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="59"/>
       <c r="C39" s="16" t="s">
         <v>22</v>
       </c>
@@ -5326,10 +5314,10 @@
       </c>
     </row>
     <row r="40" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="56" t="s">
+      <c r="A40" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="59" t="s">
+      <c r="B40" s="57" t="s">
         <v>57</v>
       </c>
       <c r="C40" s="12" t="s">
@@ -5388,8 +5376,8 @@
       </c>
     </row>
     <row r="41" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
-      <c r="B41" s="60"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="58"/>
       <c r="C41" s="9" t="s">
         <v>24</v>
       </c>
@@ -5446,8 +5434,8 @@
       </c>
     </row>
     <row r="42" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="58"/>
-      <c r="B42" s="61"/>
+      <c r="A42" s="56"/>
+      <c r="B42" s="59"/>
       <c r="C42" s="16" t="s">
         <v>25</v>
       </c>
@@ -5502,10 +5490,10 @@
       </c>
     </row>
     <row r="43" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="56" t="s">
+      <c r="A43" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="57" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="12" t="s">
@@ -5564,8 +5552,8 @@
       </c>
     </row>
     <row r="44" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="57"/>
-      <c r="B44" s="60"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="9" t="s">
         <v>61</v>
       </c>
@@ -5622,8 +5610,8 @@
       </c>
     </row>
     <row r="45" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="58"/>
-      <c r="B45" s="61"/>
+      <c r="A45" s="56"/>
+      <c r="B45" s="59"/>
       <c r="C45" s="16" t="s">
         <v>26</v>
       </c>
@@ -5678,15 +5666,15 @@
       </c>
     </row>
     <row r="46" spans="1:21" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="53" t="s">
+      <c r="D46" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="E46" s="54"/>
-      <c r="F46" s="55" t="str">
+      <c r="E46" s="68"/>
+      <c r="F46" s="69" t="str">
         <f>IF(AND(T46&gt;(U46/2),Q46=0),ROUNDUP(SUM(S5:S45)*20/U46*10,0)/10,"")</f>
         <v/>
       </c>
-      <c r="G46" s="55"/>
+      <c r="G46" s="69"/>
       <c r="H46" s="35" t="s">
         <v>62</v>
       </c>
@@ -5711,52 +5699,52 @@
       <c r="A47" s="1"/>
     </row>
     <row r="48" spans="1:21" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="67" t="s">
+      <c r="D48" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E48" s="68"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
       <c r="H48" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="110.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="48" t="s">
+      <c r="A49" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="48"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
     </row>
     <row r="51" spans="1:9" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="48" t="s">
+      <c r="A51" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="48"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="63"/>
     </row>
     <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
@@ -5787,6 +5775,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C49:I49"/>
+    <mergeCell ref="C51:I51"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="F48:G48"/>
@@ -5803,86 +5808,69 @@
     <mergeCell ref="A35:A39"/>
     <mergeCell ref="B35:B39"/>
     <mergeCell ref="B5:B9"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C49:I49"/>
-    <mergeCell ref="C51:I51"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="A17:A20"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:J5">
-    <cfRule type="expression" dxfId="66" priority="17">
+    <cfRule type="expression" dxfId="53" priority="17">
       <formula>NOT(ISBLANK($D5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:J18">
-    <cfRule type="expression" dxfId="65" priority="16">
+    <cfRule type="expression" dxfId="52" priority="16">
       <formula>NOT(ISBLANK($D6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:H5 E22:H33 E35:H45">
-    <cfRule type="expression" dxfId="64" priority="14">
+    <cfRule type="expression" dxfId="51" priority="14">
       <formula>$Q5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="15">
+    <cfRule type="expression" dxfId="50" priority="15">
       <formula>NOT(ISBLANK(E5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:H16">
-    <cfRule type="expression" dxfId="62" priority="13">
+    <cfRule type="expression" dxfId="49" priority="13">
       <formula>NOT(ISBLANK($D6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:H16">
-    <cfRule type="expression" dxfId="61" priority="11">
+    <cfRule type="expression" dxfId="48" priority="11">
       <formula>$Q6=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="12">
+    <cfRule type="expression" dxfId="47" priority="12">
       <formula>NOT(ISBLANK(E6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:H14">
-    <cfRule type="expression" dxfId="59" priority="10">
+    <cfRule type="expression" dxfId="46" priority="10">
       <formula>NOT(ISBLANK($D6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:H14">
-    <cfRule type="expression" dxfId="58" priority="8">
+    <cfRule type="expression" dxfId="45" priority="8">
       <formula>$Q6=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="9">
+    <cfRule type="expression" dxfId="44" priority="9">
       <formula>NOT(ISBLANK(E6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:H20 D22:H33 D35:H45">
-    <cfRule type="expression" dxfId="56" priority="7">
+    <cfRule type="expression" dxfId="43" priority="7">
       <formula>NOT(ISBLANK($D6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:H20">
-    <cfRule type="expression" dxfId="55" priority="5">
+    <cfRule type="expression" dxfId="42" priority="5">
       <formula>$Q6=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="6">
+    <cfRule type="expression" dxfId="41" priority="6">
       <formula>NOT(ISBLANK(E6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K45">
-    <cfRule type="expression" dxfId="53" priority="18">
+    <cfRule type="expression" dxfId="40" priority="18">
       <formula>K5=$C$53</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="19">
+    <cfRule type="expression" dxfId="39" priority="19">
       <formula>OR(K5=$B$53,K5=$B$54,K5=$B$55)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5900,8 +5888,8 @@
   <dimension ref="A1:U58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A32" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
+      <pane ySplit="3" topLeftCell="A41" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5924,30 +5912,30 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
       <c r="J2" s="31"/>
-      <c r="K2" s="66" t="s">
+      <c r="K2" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="23" t="s">
         <v>29</v>
       </c>
@@ -5967,7 +5955,7 @@
         <v>30</v>
       </c>
       <c r="J3" s="32"/>
-      <c r="K3" s="66"/>
+      <c r="K3" s="48"/>
       <c r="L3" s="5" t="s">
         <v>66</v>
       </c>
@@ -5985,25 +5973,25 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="A4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
       <c r="J4" s="33"/>
       <c r="S4" s="7"/>
     </row>
     <row r="5" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="57" t="s">
         <v>92</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -6060,8 +6048,8 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="60"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
@@ -6118,8 +6106,8 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="9" t="s">
         <v>3</v>
       </c>
@@ -6176,8 +6164,8 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="9" t="s">
         <v>94</v>
       </c>
@@ -6234,8 +6222,8 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="58"/>
-      <c r="B9" s="61"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="16" t="s">
         <v>95</v>
       </c>
@@ -6294,10 +6282,10 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="57" t="s">
         <v>217</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -6356,8 +6344,8 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="60"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="9" t="s">
         <v>36</v>
       </c>
@@ -6416,8 +6404,8 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="60"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="9" t="s">
         <v>37</v>
       </c>
@@ -6474,8 +6462,8 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="9" t="s">
         <v>97</v>
       </c>
@@ -6532,8 +6520,8 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="60"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="9" t="s">
         <v>98</v>
       </c>
@@ -6588,8 +6576,8 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="58"/>
-      <c r="B15" s="61"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="16" t="s">
         <v>99</v>
       </c>
@@ -6644,10 +6632,10 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="57" t="s">
         <v>216</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -6704,8 +6692,8 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
-      <c r="B17" s="60"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="9" t="s">
         <v>101</v>
       </c>
@@ -6760,8 +6748,8 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
-      <c r="B18" s="61"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="16" t="s">
         <v>102</v>
       </c>
@@ -6816,10 +6804,10 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="57" t="s">
         <v>104</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -6876,8 +6864,8 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
-      <c r="B20" s="61"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="16" t="s">
         <v>106</v>
       </c>
@@ -6932,17 +6920,17 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
       <c r="J21" s="33"/>
       <c r="K21" s="27" t="str">
         <f t="shared" si="0"/>
@@ -6986,10 +6974,10 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="57" t="s">
         <v>107</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -7046,8 +7034,8 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="60"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="9" t="s">
         <v>10</v>
       </c>
@@ -7102,8 +7090,8 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
-      <c r="B24" s="61"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="16" t="s">
         <v>108</v>
       </c>
@@ -7158,10 +7146,10 @@
       </c>
     </row>
     <row r="25" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="57" t="s">
         <v>109</v>
       </c>
       <c r="C25" s="12" t="s">
@@ -7218,8 +7206,8 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
-      <c r="B26" s="60"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="58"/>
       <c r="C26" s="9" t="s">
         <v>110</v>
       </c>
@@ -7276,8 +7264,8 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
-      <c r="B27" s="60"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="58"/>
       <c r="C27" s="9" t="s">
         <v>111</v>
       </c>
@@ -7332,8 +7320,8 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="58"/>
-      <c r="B28" s="61"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="59"/>
       <c r="C28" s="16" t="s">
         <v>112</v>
       </c>
@@ -7390,10 +7378,10 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="57" t="s">
         <v>113</v>
       </c>
       <c r="C29" s="12" t="s">
@@ -7506,8 +7494,8 @@
       </c>
     </row>
     <row r="31" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
-      <c r="B31" s="60"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="58"/>
       <c r="C31" s="9" t="s">
         <v>13</v>
       </c>
@@ -7562,8 +7550,8 @@
       </c>
     </row>
     <row r="32" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
-      <c r="B32" s="60"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="58"/>
       <c r="C32" s="9" t="s">
         <v>14</v>
       </c>
@@ -7618,8 +7606,8 @@
       </c>
     </row>
     <row r="33" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="58"/>
-      <c r="B33" s="61"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="59"/>
       <c r="C33" s="16" t="s">
         <v>15</v>
       </c>
@@ -7674,10 +7662,10 @@
       </c>
     </row>
     <row r="34" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="57" t="s">
         <v>116</v>
       </c>
       <c r="C34" s="12" t="s">
@@ -7790,8 +7778,8 @@
       </c>
     </row>
     <row r="36" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="58"/>
-      <c r="B36" s="61"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="59"/>
       <c r="C36" s="16" t="s">
         <v>15</v>
       </c>
@@ -7846,17 +7834,17 @@
       </c>
     </row>
     <row r="37" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
       <c r="J37" s="33"/>
       <c r="K37" s="27" t="str">
         <f t="shared" si="0"/>
@@ -7900,10 +7888,10 @@
       </c>
     </row>
     <row r="38" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="56" t="s">
+      <c r="A38" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="57" t="s">
         <v>119</v>
       </c>
       <c r="C38" s="12" t="s">
@@ -7960,8 +7948,8 @@
       </c>
     </row>
     <row r="39" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
-      <c r="B39" s="60"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="9" t="s">
         <v>120</v>
       </c>
@@ -8018,8 +8006,8 @@
       </c>
     </row>
     <row r="40" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="58"/>
-      <c r="B40" s="61"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="59"/>
       <c r="C40" s="16" t="s">
         <v>121</v>
       </c>
@@ -8076,10 +8064,10 @@
       </c>
     </row>
     <row r="41" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="57" t="s">
         <v>122</v>
       </c>
       <c r="C41" s="12" t="s">
@@ -8196,8 +8184,8 @@
       </c>
     </row>
     <row r="43" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="57"/>
-      <c r="B43" s="60"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="9" t="s">
         <v>125</v>
       </c>
@@ -8254,8 +8242,8 @@
       </c>
     </row>
     <row r="44" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="58"/>
-      <c r="B44" s="61"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="59"/>
       <c r="C44" s="16" t="s">
         <v>126</v>
       </c>
@@ -8310,10 +8298,10 @@
       </c>
     </row>
     <row r="45" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="57" t="s">
         <v>127</v>
       </c>
       <c r="C45" s="12" t="s">
@@ -8430,8 +8418,8 @@
       </c>
     </row>
     <row r="47" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="57"/>
-      <c r="B47" s="60"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="58"/>
       <c r="C47" s="9" t="s">
         <v>129</v>
       </c>
@@ -8488,8 +8476,8 @@
       </c>
     </row>
     <row r="48" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="58"/>
-      <c r="B48" s="61"/>
+      <c r="A48" s="56"/>
+      <c r="B48" s="59"/>
       <c r="C48" s="16" t="s">
         <v>15</v>
       </c>
@@ -8544,15 +8532,15 @@
       </c>
     </row>
     <row r="49" spans="1:21" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="53" t="s">
+      <c r="D49" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="54"/>
-      <c r="F49" s="55" t="str">
+      <c r="E49" s="68"/>
+      <c r="F49" s="69" t="str">
         <f>IF(AND(T49&gt;(U49/2),Q49=0),ROUNDUP(SUM(S5:S48)*20/U49*10,0)/10,"")</f>
         <v/>
       </c>
-      <c r="G49" s="55"/>
+      <c r="G49" s="69"/>
       <c r="H49" s="35" t="s">
         <v>62</v>
       </c>
@@ -8577,52 +8565,52 @@
       <c r="A50" s="1"/>
     </row>
     <row r="51" spans="1:21" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D51" s="67" t="s">
+      <c r="D51" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E51" s="68"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
       <c r="H51" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="110.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="48" t="s">
+      <c r="A52" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="B52" s="48"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="63"/>
     </row>
     <row r="53" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
     </row>
     <row r="54" spans="1:21" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="48" t="s">
+      <c r="A54" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="48"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
     </row>
     <row r="55" spans="1:21" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
@@ -8653,22 +8641,12 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:I54"/>
     <mergeCell ref="F49:G49"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="B25:B28"/>
@@ -8684,52 +8662,62 @@
     <mergeCell ref="A45:A48"/>
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:I52"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:I54"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:J19 D6:H20 D22:H36 D38:H48">
-    <cfRule type="expression" dxfId="51" priority="15">
+    <cfRule type="expression" dxfId="38" priority="15">
       <formula>NOT(ISBLANK($D5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:H20 E22:H36 E38:H48">
-    <cfRule type="expression" dxfId="50" priority="12">
+    <cfRule type="expression" dxfId="37" priority="12">
       <formula>$Q5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="13">
+    <cfRule type="expression" dxfId="36" priority="13">
       <formula>NOT(ISBLANK(E5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:H18">
-    <cfRule type="expression" dxfId="48" priority="9">
+    <cfRule type="expression" dxfId="35" priority="9">
       <formula>$Q6=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="10">
+    <cfRule type="expression" dxfId="34" priority="10">
       <formula>NOT(ISBLANK(E6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:H14">
-    <cfRule type="expression" dxfId="46" priority="8">
+    <cfRule type="expression" dxfId="33" priority="8">
       <formula>NOT(ISBLANK($D6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:H14">
-    <cfRule type="expression" dxfId="45" priority="6">
+    <cfRule type="expression" dxfId="32" priority="6">
       <formula>$Q6=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="7">
+    <cfRule type="expression" dxfId="31" priority="7">
       <formula>NOT(ISBLANK(E6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K48">
-    <cfRule type="expression" dxfId="43" priority="71">
+    <cfRule type="expression" dxfId="30" priority="71">
       <formula>K5=$C$56</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="72">
+    <cfRule type="expression" dxfId="29" priority="72">
       <formula>OR(K5=$B$56,K5=$B$57,K5=$B$58)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8747,8 +8735,8 @@
   <dimension ref="A1:V63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="W8" sqref="W8"/>
+      <pane ySplit="3" topLeftCell="A48" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8771,30 +8759,30 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
       <c r="J2" s="31"/>
-      <c r="K2" s="66" t="s">
+      <c r="K2" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="23" t="s">
         <v>29</v>
       </c>
@@ -8814,7 +8802,7 @@
         <v>30</v>
       </c>
       <c r="J3" s="32"/>
-      <c r="K3" s="66"/>
+      <c r="K3" s="48"/>
       <c r="L3" s="5" t="s">
         <v>66</v>
       </c>
@@ -8832,25 +8820,25 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="A4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
       <c r="J4" s="33"/>
       <c r="S4" s="7"/>
     </row>
     <row r="5" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="57" t="s">
         <v>130</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -8907,8 +8895,8 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="60"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
@@ -8965,8 +8953,8 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="9" t="s">
         <v>3</v>
       </c>
@@ -9023,8 +9011,8 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="9" t="s">
         <v>37</v>
       </c>
@@ -9081,8 +9069,8 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="60"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="9" t="s">
         <v>94</v>
       </c>
@@ -9098,7 +9086,7 @@
       </c>
       <c r="J9" s="32"/>
       <c r="K9" s="27" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(Q9&gt;0,$B$61,IF(AND(R9=0,L9&gt;0),$C$61,""))</f>
         <v/>
       </c>
       <c r="L9" s="6">
@@ -9139,8 +9127,8 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
-      <c r="B10" s="60"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="9" t="s">
         <v>95</v>
       </c>
@@ -9197,8 +9185,8 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="58"/>
-      <c r="B11" s="61"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="16" t="s">
         <v>96</v>
       </c>
@@ -9257,10 +9245,10 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="57" t="s">
         <v>131</v>
       </c>
       <c r="C12" s="12" t="s">
@@ -9319,8 +9307,8 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="9" t="s">
         <v>98</v>
       </c>
@@ -9379,8 +9367,8 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="60"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="9" t="s">
         <v>134</v>
       </c>
@@ -9437,8 +9425,8 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
-      <c r="B15" s="60"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="9" t="s">
         <v>36</v>
       </c>
@@ -9495,8 +9483,8 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
-      <c r="B16" s="60"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="9" t="s">
         <v>135</v>
       </c>
@@ -9551,8 +9539,8 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
-      <c r="B17" s="61"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="16" t="s">
         <v>136</v>
       </c>
@@ -9607,10 +9595,10 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="57" t="s">
         <v>132</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -9779,8 +9767,8 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
-      <c r="B21" s="61"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="59"/>
       <c r="C21" s="16" t="s">
         <v>139</v>
       </c>
@@ -9835,10 +9823,10 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="57" t="s">
         <v>133</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -9966,7 +9954,7 @@
       </c>
       <c r="J24" s="32"/>
       <c r="K24" s="27" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(Q24&gt;0,$B$61,IF(AND(R24=0,L24&gt;0),$C$61,""))</f>
         <v>Si la compétence doit être évaluée (case "non" vide), alors une case d'évaluation doit être cochée.</v>
       </c>
       <c r="L24" s="6">
@@ -10007,8 +9995,8 @@
       </c>
     </row>
     <row r="25" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
-      <c r="B25" s="61"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="59"/>
       <c r="C25" s="16" t="s">
         <v>142</v>
       </c>
@@ -10063,17 +10051,17 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
       <c r="J26" s="33"/>
       <c r="K26" s="27" t="str">
         <f t="shared" si="0"/>
@@ -10117,10 +10105,10 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="57" t="s">
         <v>143</v>
       </c>
       <c r="C27" s="12" t="s">
@@ -10177,8 +10165,8 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
-      <c r="B28" s="60"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="58"/>
       <c r="C28" s="9" t="s">
         <v>148</v>
       </c>
@@ -10233,8 +10221,8 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="58"/>
-      <c r="B29" s="61"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="16" t="s">
         <v>108</v>
       </c>
@@ -10289,10 +10277,10 @@
       </c>
     </row>
     <row r="30" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="57" t="s">
         <v>144</v>
       </c>
       <c r="C30" s="12" t="s">
@@ -10349,8 +10337,8 @@
       </c>
     </row>
     <row r="31" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
-      <c r="B31" s="60"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="58"/>
       <c r="C31" s="9" t="s">
         <v>149</v>
       </c>
@@ -10407,8 +10395,8 @@
       </c>
     </row>
     <row r="32" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
-      <c r="B32" s="60"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="58"/>
       <c r="C32" s="9" t="s">
         <v>150</v>
       </c>
@@ -10463,8 +10451,8 @@
       </c>
     </row>
     <row r="33" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="58"/>
-      <c r="B33" s="61"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="59"/>
       <c r="C33" s="16" t="s">
         <v>112</v>
       </c>
@@ -10521,10 +10509,10 @@
       </c>
     </row>
     <row r="34" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="57" t="s">
         <v>145</v>
       </c>
       <c r="C34" s="12" t="s">
@@ -10637,8 +10625,8 @@
       </c>
     </row>
     <row r="36" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="58"/>
-      <c r="B36" s="61"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="59"/>
       <c r="C36" s="16" t="s">
         <v>151</v>
       </c>
@@ -10693,10 +10681,10 @@
       </c>
     </row>
     <row r="37" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="56" t="s">
+      <c r="A37" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="57" t="s">
         <v>146</v>
       </c>
       <c r="C37" s="12" t="s">
@@ -10921,8 +10909,8 @@
       </c>
     </row>
     <row r="41" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="58"/>
-      <c r="B41" s="61"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="59"/>
       <c r="C41" s="16" t="s">
         <v>151</v>
       </c>
@@ -10977,17 +10965,17 @@
       </c>
     </row>
     <row r="42" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="52" t="s">
+      <c r="A42" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
       <c r="J42" s="33"/>
       <c r="K42" s="27" t="str">
         <f t="shared" si="26"/>
@@ -11031,10 +11019,10 @@
       </c>
     </row>
     <row r="43" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="56" t="s">
+      <c r="A43" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="57" t="s">
         <v>152</v>
       </c>
       <c r="C43" s="12" t="s">
@@ -11091,8 +11079,8 @@
       </c>
     </row>
     <row r="44" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="57"/>
-      <c r="B44" s="60"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="9" t="s">
         <v>114</v>
       </c>
@@ -11149,8 +11137,8 @@
       </c>
     </row>
     <row r="45" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="58"/>
-      <c r="B45" s="61"/>
+      <c r="A45" s="56"/>
+      <c r="B45" s="59"/>
       <c r="C45" s="16" t="s">
         <v>153</v>
       </c>
@@ -11207,10 +11195,10 @@
       </c>
     </row>
     <row r="46" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="56" t="s">
+      <c r="A46" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="59" t="s">
+      <c r="B46" s="57" t="s">
         <v>154</v>
       </c>
       <c r="C46" s="12" t="s">
@@ -11327,8 +11315,8 @@
       </c>
     </row>
     <row r="48" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="57"/>
-      <c r="B48" s="60"/>
+      <c r="A48" s="55"/>
+      <c r="B48" s="58"/>
       <c r="C48" s="9" t="s">
         <v>125</v>
       </c>
@@ -11385,8 +11373,8 @@
       </c>
     </row>
     <row r="49" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="58"/>
-      <c r="B49" s="61"/>
+      <c r="A49" s="56"/>
+      <c r="B49" s="59"/>
       <c r="C49" s="16" t="s">
         <v>156</v>
       </c>
@@ -11441,10 +11429,10 @@
       </c>
     </row>
     <row r="50" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="56" t="s">
+      <c r="A50" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="59" t="s">
+      <c r="B50" s="57" t="s">
         <v>157</v>
       </c>
       <c r="C50" s="12" t="s">
@@ -11561,8 +11549,8 @@
       </c>
     </row>
     <row r="52" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="57"/>
-      <c r="B52" s="60"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="58"/>
       <c r="C52" s="9" t="s">
         <v>160</v>
       </c>
@@ -11619,8 +11607,8 @@
       </c>
     </row>
     <row r="53" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="58"/>
-      <c r="B53" s="61"/>
+      <c r="A53" s="56"/>
+      <c r="B53" s="59"/>
       <c r="C53" s="16" t="s">
         <v>15</v>
       </c>
@@ -11675,15 +11663,15 @@
       </c>
     </row>
     <row r="54" spans="1:21" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="53" t="s">
+      <c r="D54" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="54"/>
-      <c r="F54" s="55" t="str">
+      <c r="E54" s="68"/>
+      <c r="F54" s="69" t="str">
         <f>IF(AND(T54&gt;(U54/2),Q54=0),ROUNDUP(SUM(S5:S53)*20/U54*10,0)/10,"")</f>
         <v/>
       </c>
-      <c r="G54" s="55"/>
+      <c r="G54" s="69"/>
       <c r="H54" s="35" t="s">
         <v>62</v>
       </c>
@@ -11708,52 +11696,52 @@
       <c r="A55" s="1"/>
     </row>
     <row r="56" spans="1:21" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D56" s="67" t="s">
+      <c r="D56" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E56" s="68"/>
-      <c r="F56" s="69"/>
-      <c r="G56" s="69"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
       <c r="H56" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="110.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="48" t="s">
+      <c r="A57" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="48"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="49"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="63"/>
     </row>
     <row r="58" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
     </row>
     <row r="59" spans="1:21" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="48" t="s">
+      <c r="A59" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="B59" s="48"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="63"/>
     </row>
     <row r="60" spans="1:21" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
@@ -11784,16 +11772,17 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:I57"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:I59"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:I2"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="A46:A49"/>
@@ -11810,60 +11799,59 @@
     <mergeCell ref="A42:I42"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="B43:B45"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:I57"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:I59"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
   </mergeCells>
   <conditionalFormatting sqref="D25:H25 D43:H53 C5:J24 D27:H41">
-    <cfRule type="expression" dxfId="41" priority="16">
+    <cfRule type="expression" dxfId="28" priority="16">
       <formula>NOT(ISBLANK($D5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:H53 E5:H25 E27:H41">
-    <cfRule type="expression" dxfId="40" priority="14">
+    <cfRule type="expression" dxfId="27" priority="14">
       <formula>$Q5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="15">
+    <cfRule type="expression" dxfId="26" priority="15">
       <formula>NOT(ISBLANK(E5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:H21">
-    <cfRule type="expression" dxfId="38" priority="12">
+    <cfRule type="expression" dxfId="25" priority="12">
       <formula>$Q6=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="13">
+    <cfRule type="expression" dxfId="24" priority="13">
       <formula>NOT(ISBLANK(E6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:H24">
-    <cfRule type="expression" dxfId="36" priority="3">
+    <cfRule type="expression" dxfId="23" priority="3">
       <formula>$Q23=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="4">
+    <cfRule type="expression" dxfId="22" priority="4">
       <formula>NOT(ISBLANK(E23))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:H24">
-    <cfRule type="expression" dxfId="34" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>$Q24=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>NOT(ISBLANK(E24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K53">
-    <cfRule type="expression" dxfId="32" priority="60">
+    <cfRule type="expression" dxfId="19" priority="60">
       <formula>K5=$C$61</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="61">
+    <cfRule type="expression" dxfId="18" priority="61">
       <formula>OR(K5=$B$61,K5=$B$62,K5=$B$63)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11881,8 +11869,8 @@
   <dimension ref="A1:U60"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="Y9" sqref="Y9"/>
+      <pane ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11909,30 +11897,30 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
       <c r="J2" s="31"/>
-      <c r="K2" s="66" t="s">
+      <c r="K2" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="23" t="s">
         <v>29</v>
       </c>
@@ -11952,7 +11940,7 @@
         <v>30</v>
       </c>
       <c r="J3" s="32"/>
-      <c r="K3" s="66"/>
+      <c r="K3" s="48"/>
       <c r="L3" s="5" t="s">
         <v>66</v>
       </c>
@@ -11970,25 +11958,25 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="A4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
       <c r="J4" s="33"/>
       <c r="S4" s="7"/>
     </row>
     <row r="5" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="57" t="s">
         <v>161</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -12045,8 +12033,8 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="60"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="9" t="s">
         <v>163</v>
       </c>
@@ -12103,8 +12091,8 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="9" t="s">
         <v>165</v>
       </c>
@@ -12161,8 +12149,8 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="58"/>
-      <c r="B8" s="61"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="16" t="s">
         <v>164</v>
       </c>
@@ -12221,10 +12209,10 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="57" t="s">
         <v>166</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -12283,8 +12271,8 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
-      <c r="B10" s="60"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="9" t="s">
         <v>168</v>
       </c>
@@ -12343,8 +12331,8 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="60"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="9" t="s">
         <v>169</v>
       </c>
@@ -12401,8 +12389,8 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="60"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="9" t="s">
         <v>170</v>
       </c>
@@ -12457,8 +12445,8 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
-      <c r="B13" s="61"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="16" t="s">
         <v>171</v>
       </c>
@@ -12513,10 +12501,10 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="57" t="s">
         <v>215</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -12685,8 +12673,8 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
-      <c r="B17" s="61"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="16" t="s">
         <v>175</v>
       </c>
@@ -12741,17 +12729,17 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
       <c r="J18" s="33"/>
       <c r="K18" s="27" t="str">
         <f t="shared" si="0"/>
@@ -12795,10 +12783,10 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="57" t="s">
         <v>176</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -12855,8 +12843,8 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
-      <c r="B20" s="60"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="58"/>
       <c r="C20" s="9" t="s">
         <v>178</v>
       </c>
@@ -12911,8 +12899,8 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
-      <c r="B21" s="61"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="59"/>
       <c r="C21" s="16" t="s">
         <v>179</v>
       </c>
@@ -12967,10 +12955,10 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="57" t="s">
         <v>180</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -13027,8 +13015,8 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="60"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="9" t="s">
         <v>182</v>
       </c>
@@ -13085,8 +13073,8 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="60"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="9" t="s">
         <v>183</v>
       </c>
@@ -13141,8 +13129,8 @@
       </c>
     </row>
     <row r="25" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
-      <c r="B25" s="61"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="59"/>
       <c r="C25" s="16" t="s">
         <v>184</v>
       </c>
@@ -13199,10 +13187,10 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="57" t="s">
         <v>185</v>
       </c>
       <c r="C26" s="12" t="s">
@@ -13315,8 +13303,8 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="58"/>
-      <c r="B28" s="61"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="59"/>
       <c r="C28" s="16" t="s">
         <v>188</v>
       </c>
@@ -13371,10 +13359,10 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="57" t="s">
         <v>189</v>
       </c>
       <c r="C29" s="12" t="s">
@@ -13543,8 +13531,8 @@
       </c>
     </row>
     <row r="32" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="58"/>
-      <c r="B32" s="61"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="59"/>
       <c r="C32" s="16" t="s">
         <v>193</v>
       </c>
@@ -13599,17 +13587,17 @@
       </c>
     </row>
     <row r="33" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
       <c r="J33" s="33"/>
       <c r="K33" s="27" t="str">
         <f t="shared" si="0"/>
@@ -13653,10 +13641,10 @@
       </c>
     </row>
     <row r="34" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="57" t="s">
         <v>195</v>
       </c>
       <c r="C34" s="12" t="s">
@@ -13713,8 +13701,8 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
-      <c r="B35" s="60"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="58"/>
       <c r="C35" s="9" t="s">
         <v>197</v>
       </c>
@@ -13771,8 +13759,8 @@
       </c>
     </row>
     <row r="36" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="58"/>
-      <c r="B36" s="61"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="59"/>
       <c r="C36" s="16" t="s">
         <v>198</v>
       </c>
@@ -13829,10 +13817,10 @@
       </c>
     </row>
     <row r="37" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="56" t="s">
+      <c r="A37" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="57" t="s">
         <v>199</v>
       </c>
       <c r="C37" s="12" t="s">
@@ -14007,8 +13995,8 @@
       </c>
     </row>
     <row r="40" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
-      <c r="B40" s="60"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="58"/>
       <c r="C40" s="9" t="s">
         <v>202</v>
       </c>
@@ -14065,8 +14053,8 @@
       </c>
     </row>
     <row r="41" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="58"/>
-      <c r="B41" s="61"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="59"/>
       <c r="C41" s="16" t="s">
         <v>203</v>
       </c>
@@ -14121,10 +14109,10 @@
       </c>
     </row>
     <row r="42" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="56" t="s">
+      <c r="A42" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="57" t="s">
         <v>204</v>
       </c>
       <c r="C42" s="12" t="s">
@@ -14241,8 +14229,8 @@
       </c>
     </row>
     <row r="44" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="57"/>
-      <c r="B44" s="60"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="9" t="s">
         <v>207</v>
       </c>
@@ -14299,8 +14287,8 @@
       </c>
     </row>
     <row r="45" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="58"/>
-      <c r="B45" s="61"/>
+      <c r="A45" s="56"/>
+      <c r="B45" s="59"/>
       <c r="C45" s="16" t="s">
         <v>208</v>
       </c>
@@ -14355,10 +14343,10 @@
       </c>
     </row>
     <row r="46" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="56" t="s">
+      <c r="A46" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="B46" s="59" t="s">
+      <c r="B46" s="57" t="s">
         <v>214</v>
       </c>
       <c r="C46" s="12" t="s">
@@ -14533,8 +14521,8 @@
       </c>
     </row>
     <row r="49" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="57"/>
-      <c r="B49" s="60"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="58"/>
       <c r="C49" s="9" t="s">
         <v>212</v>
       </c>
@@ -14591,8 +14579,8 @@
       </c>
     </row>
     <row r="50" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="58"/>
-      <c r="B50" s="61"/>
+      <c r="A50" s="56"/>
+      <c r="B50" s="59"/>
       <c r="C50" s="16" t="s">
         <v>213</v>
       </c>
@@ -14647,15 +14635,15 @@
       </c>
     </row>
     <row r="51" spans="1:21" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D51" s="53" t="s">
+      <c r="D51" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="E51" s="54"/>
-      <c r="F51" s="55" t="str">
+      <c r="E51" s="68"/>
+      <c r="F51" s="69" t="str">
         <f>IF(AND(T51&gt;(U51/2),Q51=0),ROUNDUP(SUM(S5:S50)*20/U51*10,0)/10,"")</f>
         <v/>
       </c>
-      <c r="G51" s="55"/>
+      <c r="G51" s="69"/>
       <c r="H51" s="35" t="s">
         <v>62</v>
       </c>
@@ -14680,52 +14668,52 @@
       <c r="A52" s="1"/>
     </row>
     <row r="53" spans="1:21" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="67" t="s">
+      <c r="D53" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E53" s="68"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="69"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
       <c r="H53" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="110.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="48" t="s">
+      <c r="A54" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="B54" s="48"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
     </row>
     <row r="55" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
     </row>
     <row r="56" spans="1:21" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="48" t="s">
+      <c r="A56" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="48"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
     </row>
     <row r="57" spans="1:21" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
@@ -14756,18 +14744,17 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:I54"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:I56"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A2:B3"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="B37:B41"/>
     <mergeCell ref="A18:I18"/>
@@ -14782,60 +14769,61 @@
     <mergeCell ref="A33:I33"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="B34:B36"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:I54"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:I56"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
   </mergeCells>
   <conditionalFormatting sqref="D17:H17 C5:J16 D19:H32 D34:H50">
-    <cfRule type="expression" dxfId="30" priority="11">
+    <cfRule type="expression" dxfId="17" priority="11">
       <formula>NOT(ISBLANK($D5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:H17 E19:H32 E34:H50">
-    <cfRule type="expression" dxfId="29" priority="9">
+    <cfRule type="expression" dxfId="16" priority="9">
       <formula>$Q5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="10">
+    <cfRule type="expression" dxfId="15" priority="10">
       <formula>NOT(ISBLANK(E5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:H13">
-    <cfRule type="expression" dxfId="27" priority="7">
+    <cfRule type="expression" dxfId="14" priority="7">
       <formula>$Q6=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="8">
+    <cfRule type="expression" dxfId="13" priority="8">
       <formula>NOT(ISBLANK(E6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:H16">
-    <cfRule type="expression" dxfId="25" priority="5">
+    <cfRule type="expression" dxfId="12" priority="5">
       <formula>$Q15=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="6">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>NOT(ISBLANK(E15))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:H16">
-    <cfRule type="expression" dxfId="23" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>$Q16=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="4">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>NOT(ISBLANK(E16))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K50">
-    <cfRule type="expression" dxfId="21" priority="52">
+    <cfRule type="expression" dxfId="8" priority="52">
       <formula>K5=$C$58</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="53">
+    <cfRule type="expression" dxfId="7" priority="53">
       <formula>OR(K5=$B$58,K5=$B$59,K5=$B$60)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14853,8 +14841,8 @@
   <dimension ref="A1:U63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="X7" sqref="X7"/>
+      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14878,30 +14866,30 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
       <c r="J2" s="31"/>
-      <c r="K2" s="66" t="s">
+      <c r="K2" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="23" t="s">
         <v>29</v>
       </c>
@@ -14921,7 +14909,7 @@
         <v>30</v>
       </c>
       <c r="J3" s="32"/>
-      <c r="K3" s="66"/>
+      <c r="K3" s="48"/>
       <c r="L3" s="5" t="s">
         <v>66</v>
       </c>
@@ -14939,25 +14927,25 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="66" t="s">
         <v>219</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
       <c r="J4" s="33"/>
       <c r="S4" s="7"/>
     </row>
     <row r="5" spans="1:20" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="57" t="s">
         <v>221</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -14973,7 +14961,7 @@
       </c>
       <c r="J5" s="32"/>
       <c r="K5" s="27" t="str">
-        <f>IF(Q5&gt;0,$B$48,IF(AND(R5=0,L5&gt;0),$C$48,""))</f>
+        <f t="shared" ref="K5:K11" si="0">IF(Q5&gt;0,$B$48,IF(AND(R5=0,L5&gt;0),$C$48,""))</f>
         <v>Si la compétence doit être évaluée (case "non" vide), alors une case d'évaluation doit être cochée.</v>
       </c>
       <c r="L5" s="6">
@@ -14985,15 +14973,15 @@
         <v/>
       </c>
       <c r="N5" s="6" t="str">
-        <f t="shared" ref="N5:P12" si="0">IF(ISBLANK(F5),"",F$3)</f>
+        <f t="shared" ref="N5:P12" si="1">IF(ISBLANK(F5),"",F$3)</f>
         <v/>
       </c>
       <c r="O5" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P5" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q5" s="29">
@@ -15014,8 +15002,8 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="60"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="9" t="s">
         <v>225</v>
       </c>
@@ -15031,49 +15019,49 @@
       </c>
       <c r="J6" s="32"/>
       <c r="K6" s="27" t="str">
-        <f>IF(Q6&gt;0,$B$48,IF(AND(R6=0,L6&gt;0),$C$48,""))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L6" s="6">
-        <f t="shared" ref="L6:L40" si="1">IF(ISBLANK(D6),1,0)</f>
+        <f t="shared" ref="L6:L40" si="2">IF(ISBLANK(D6),1,0)</f>
         <v>1</v>
       </c>
       <c r="M6" s="6" t="str">
-        <f t="shared" ref="M6:P40" si="2">IF(ISBLANK(E6),"",E$3)</f>
+        <f t="shared" ref="M6:P40" si="3">IF(ISBLANK(E6),"",E$3)</f>
         <v/>
       </c>
       <c r="N6" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P6" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q6" s="29">
-        <f t="shared" ref="Q6:Q40" si="3">IF(COUNTA(E6:H6)&gt;1,1,0)</f>
+        <f t="shared" ref="Q6:Q40" si="4">IF(COUNTA(E6:H6)&gt;1,1,0)</f>
         <v>0</v>
       </c>
       <c r="R6" s="6">
-        <f t="shared" ref="R6:R40" si="4">IF(COUNTA(E6:H6)=0,0,1)</f>
+        <f t="shared" ref="R6:R40" si="5">IF(COUNTA(E6:H6)=0,0,1)</f>
         <v>1</v>
       </c>
       <c r="S6" s="7">
-        <f t="shared" ref="S6:S40" si="5">IF(L6*(1-Q6)*R6=0,"",SUM(M6:P6)*I6)</f>
+        <f t="shared" ref="S6:S40" si="6">IF(L6*(1-Q6)*R6=0,"",SUM(M6:P6)*I6)</f>
         <v>2</v>
       </c>
       <c r="T6" s="6">
-        <f t="shared" ref="T6:T40" si="6">IF(S6="","",I6)</f>
+        <f t="shared" ref="T6:T40" si="7">IF(S6="","",I6)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="9" t="s">
         <v>226</v>
       </c>
@@ -15089,50 +15077,50 @@
       </c>
       <c r="J7" s="32"/>
       <c r="K7" s="27" t="str">
-        <f>IF(Q7&gt;0,$B$48,IF(AND(R7=0,L7&gt;0),$C$48,""))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M7" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N7" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O7" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Q7" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R7" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="S7" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="T7" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="74"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="76" t="s">
+      <c r="A8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="41" t="s">
         <v>227</v>
       </c>
       <c r="D8" s="19"/>
@@ -15145,49 +15133,49 @@
       </c>
       <c r="J8" s="32"/>
       <c r="K8" s="27" t="str">
-        <f>IF(Q8&gt;0,$B$48,IF(AND(R8=0,L8&gt;0),$C$48,""))</f>
+        <f t="shared" si="0"/>
         <v>Si la compétence doit être évaluée (case "non" vide), alors une case d'évaluation doit être cochée.</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" ref="L8" si="7">IF(ISBLANK(D8),1,0)</f>
+        <f t="shared" ref="L8" si="8">IF(ISBLANK(D8),1,0)</f>
         <v>1</v>
       </c>
       <c r="M8" s="6" t="str">
-        <f t="shared" ref="M8" si="8">IF(ISBLANK(E8),"",E$3)</f>
+        <f t="shared" ref="M8" si="9">IF(ISBLANK(E8),"",E$3)</f>
         <v/>
       </c>
       <c r="N8" s="6" t="str">
-        <f t="shared" ref="N8" si="9">IF(ISBLANK(F8),"",F$3)</f>
+        <f t="shared" ref="N8" si="10">IF(ISBLANK(F8),"",F$3)</f>
         <v/>
       </c>
       <c r="O8" s="6" t="str">
-        <f t="shared" ref="O8" si="10">IF(ISBLANK(G8),"",G$3)</f>
+        <f t="shared" ref="O8" si="11">IF(ISBLANK(G8),"",G$3)</f>
         <v/>
       </c>
       <c r="P8" s="6" t="str">
-        <f t="shared" ref="P8" si="11">IF(ISBLANK(H8),"",H$3)</f>
+        <f t="shared" ref="P8" si="12">IF(ISBLANK(H8),"",H$3)</f>
         <v/>
       </c>
       <c r="Q8" s="29">
-        <f t="shared" ref="Q8" si="12">IF(COUNTA(E8:H8)&gt;1,1,0)</f>
+        <f t="shared" ref="Q8" si="13">IF(COUNTA(E8:H8)&gt;1,1,0)</f>
         <v>0</v>
       </c>
       <c r="R8" s="6">
-        <f t="shared" ref="R8" si="13">IF(COUNTA(E8:H8)=0,0,1)</f>
+        <f t="shared" ref="R8" si="14">IF(COUNTA(E8:H8)=0,0,1)</f>
         <v>0</v>
       </c>
       <c r="S8" s="7" t="str">
-        <f t="shared" ref="S8" si="14">IF(L8*(1-Q8)*R8=0,"",SUM(M8:P8)*I8)</f>
+        <f t="shared" ref="S8" si="15">IF(L8*(1-Q8)*R8=0,"",SUM(M8:P8)*I8)</f>
         <v/>
       </c>
       <c r="T8" s="6" t="str">
-        <f t="shared" ref="T8" si="15">IF(S8="","",I8)</f>
+        <f t="shared" ref="T8" si="16">IF(S8="","",I8)</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="58"/>
-      <c r="B9" s="61"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="16" t="s">
         <v>228</v>
       </c>
@@ -15205,51 +15193,51 @@
       </c>
       <c r="J9" s="32"/>
       <c r="K9" s="27" t="str">
-        <f>IF(Q9&gt;0,$B$48,IF(AND(R9=0,L9&gt;0),$C$48,""))</f>
+        <f t="shared" si="0"/>
         <v>Seule UNE case d'évaluation peut être cochée</v>
       </c>
       <c r="L9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M9" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P9" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q9" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="R9" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="S9" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T9" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="57" t="s">
         <v>222</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -15267,49 +15255,49 @@
       </c>
       <c r="J10" s="32"/>
       <c r="K10" s="27" t="str">
-        <f>IF(Q10&gt;0,$B$48,IF(AND(R10=0,L10&gt;0),$C$48,""))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M10" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N10" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P10" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q10" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R10" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="S10" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="T10" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="60"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="9" t="s">
         <v>230</v>
       </c>
@@ -15327,49 +15315,49 @@
       </c>
       <c r="J11" s="32"/>
       <c r="K11" s="27" t="str">
-        <f>IF(Q11&gt;0,$B$48,IF(AND(R11=0,L11&gt;0),$C$48,""))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M11" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N11" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O11" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Q11" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R11" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="S11" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T11" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="60"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="9" t="s">
         <v>231</v>
       </c>
@@ -15385,97 +15373,97 @@
       </c>
       <c r="J12" s="32"/>
       <c r="L12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M12" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O12" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P12" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q12" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R12" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="S12" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="T12" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
       <c r="J13" s="33"/>
       <c r="L13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M13" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N13" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O13" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P13" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q13" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R13" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S13" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T13" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="57" t="s">
         <v>235</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -15491,49 +15479,49 @@
       </c>
       <c r="J14" s="32"/>
       <c r="K14" s="27" t="str">
-        <f>IF(Q14&gt;0,$B$48,IF(AND(R14=0,L14&gt;0),$C$48,""))</f>
+        <f t="shared" ref="K14:K22" si="17">IF(Q14&gt;0,$B$48,IF(AND(R14=0,L14&gt;0),$C$48,""))</f>
         <v>Si la compétence doit être évaluée (case "non" vide), alors une case d'évaluation doit être cochée.</v>
       </c>
       <c r="L14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M14" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N14" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O14" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P14" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q14" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R14" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S14" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T14" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
-      <c r="B15" s="60"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="9" t="s">
         <v>238</v>
       </c>
@@ -15547,50 +15535,50 @@
       </c>
       <c r="J15" s="32"/>
       <c r="K15" s="27" t="str">
-        <f>IF(Q15&gt;0,$B$48,IF(AND(R15=0,L15&gt;0),$C$48,""))</f>
+        <f t="shared" si="17"/>
         <v>Si la compétence doit être évaluée (case "non" vide), alors une case d'évaluation doit être cochée.</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M15" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N15" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O15" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P15" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q15" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R15" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S15" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T15" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="76" t="s">
+      <c r="A16" s="79"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="41" t="s">
         <v>239</v>
       </c>
       <c r="D16" s="19"/>
@@ -15598,14 +15586,14 @@
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="34"/>
-      <c r="I16" s="77"/>
+      <c r="I16" s="42"/>
       <c r="J16" s="32"/>
       <c r="K16" s="27" t="str">
-        <f>IF(Q16&gt;0,$B$48,IF(AND(R16=0,L16&gt;0),$C$48,""))</f>
+        <f t="shared" si="17"/>
         <v>Si la compétence doit être évaluée (case "non" vide), alors une case d'évaluation doit être cochée.</v>
       </c>
       <c r="L16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M16" s="6"/>
@@ -15617,8 +15605,8 @@
       <c r="S16" s="7"/>
     </row>
     <row r="17" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
-      <c r="B17" s="61"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="16" t="s">
         <v>240</v>
       </c>
@@ -15632,51 +15620,51 @@
       </c>
       <c r="J17" s="32"/>
       <c r="K17" s="27" t="str">
-        <f>IF(Q17&gt;0,$B$48,IF(AND(R17=0,L17&gt;0),$C$48,""))</f>
+        <f t="shared" si="17"/>
         <v>Si la compétence doit être évaluée (case "non" vide), alors une case d'évaluation doit être cochée.</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M17" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N17" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O17" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P17" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q17" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R17" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S17" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T17" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="57" t="s">
         <v>236</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -15692,49 +15680,49 @@
       </c>
       <c r="J18" s="32"/>
       <c r="K18" s="27" t="str">
-        <f>IF(Q18&gt;0,$B$48,IF(AND(R18=0,L18&gt;0),$C$48,""))</f>
+        <f t="shared" si="17"/>
         <v>Si la compétence doit être évaluée (case "non" vide), alors une case d'évaluation doit être cochée.</v>
       </c>
       <c r="L18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M18" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N18" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O18" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P18" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q18" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S18" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T18" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="9" t="s">
         <v>242</v>
       </c>
@@ -15750,49 +15738,49 @@
       </c>
       <c r="J19" s="32"/>
       <c r="K19" s="27" t="str">
-        <f>IF(Q19&gt;0,$B$48,IF(AND(R19=0,L19&gt;0),$C$48,""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M19" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O19" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P19" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q19" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R19" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="S19" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="T19" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
-      <c r="B20" s="60"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="58"/>
       <c r="C20" s="9" t="s">
         <v>243</v>
       </c>
@@ -15806,50 +15794,50 @@
       </c>
       <c r="J20" s="32"/>
       <c r="K20" s="27" t="str">
-        <f>IF(Q20&gt;0,$B$48,IF(AND(R20=0,L20&gt;0),$C$48,""))</f>
+        <f t="shared" si="17"/>
         <v>Si la compétence doit être évaluée (case "non" vide), alors une case d'évaluation doit être cochée.</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M20" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N20" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O20" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P20" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q20" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R20" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S20" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T20" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="74"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="76" t="s">
+      <c r="A21" s="79"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="41" t="s">
         <v>244</v>
       </c>
       <c r="D21" s="19"/>
@@ -15862,49 +15850,49 @@
       </c>
       <c r="J21" s="32"/>
       <c r="K21" s="27" t="str">
-        <f>IF(Q21&gt;0,$B$48,IF(AND(R21=0,L21&gt;0),$C$48,""))</f>
+        <f t="shared" si="17"/>
         <v>Si la compétence doit être évaluée (case "non" vide), alors une case d'évaluation doit être cochée.</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" ref="L21" si="16">IF(ISBLANK(D21),1,0)</f>
+        <f t="shared" ref="L21" si="18">IF(ISBLANK(D21),1,0)</f>
         <v>1</v>
       </c>
       <c r="M21" s="6" t="str">
-        <f t="shared" ref="M21" si="17">IF(ISBLANK(E21),"",E$3)</f>
+        <f t="shared" ref="M21" si="19">IF(ISBLANK(E21),"",E$3)</f>
         <v/>
       </c>
       <c r="N21" s="6" t="str">
-        <f t="shared" ref="N21" si="18">IF(ISBLANK(F21),"",F$3)</f>
+        <f t="shared" ref="N21" si="20">IF(ISBLANK(F21),"",F$3)</f>
         <v/>
       </c>
       <c r="O21" s="6" t="str">
-        <f t="shared" ref="O21" si="19">IF(ISBLANK(G21),"",G$3)</f>
+        <f t="shared" ref="O21" si="21">IF(ISBLANK(G21),"",G$3)</f>
         <v/>
       </c>
       <c r="P21" s="6" t="str">
-        <f t="shared" ref="P21" si="20">IF(ISBLANK(H21),"",H$3)</f>
+        <f t="shared" ref="P21" si="22">IF(ISBLANK(H21),"",H$3)</f>
         <v/>
       </c>
       <c r="Q21" s="29">
-        <f t="shared" ref="Q21" si="21">IF(COUNTA(E21:H21)&gt;1,1,0)</f>
+        <f t="shared" ref="Q21" si="23">IF(COUNTA(E21:H21)&gt;1,1,0)</f>
         <v>0</v>
       </c>
       <c r="R21" s="6">
-        <f t="shared" ref="R21" si="22">IF(COUNTA(E21:H21)=0,0,1)</f>
+        <f t="shared" ref="R21" si="24">IF(COUNTA(E21:H21)=0,0,1)</f>
         <v>0</v>
       </c>
       <c r="S21" s="7" t="str">
-        <f t="shared" ref="S21" si="23">IF(L21*(1-Q21)*R21=0,"",SUM(M21:P21)*I21)</f>
+        <f t="shared" ref="S21" si="25">IF(L21*(1-Q21)*R21=0,"",SUM(M21:P21)*I21)</f>
         <v/>
       </c>
       <c r="T21" s="6" t="str">
-        <f t="shared" ref="T21" si="24">IF(S21="","",I21)</f>
+        <f t="shared" ref="T21" si="26">IF(S21="","",I21)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
-      <c r="B22" s="61"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="59"/>
       <c r="C22" s="16" t="s">
         <v>245</v>
       </c>
@@ -15920,101 +15908,101 @@
       </c>
       <c r="J22" s="32"/>
       <c r="K22" s="27" t="str">
-        <f>IF(Q22&gt;0,$B$48,IF(AND(R22=0,L22&gt;0),$C$48,""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M22" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N22" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="P22" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q22" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R22" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="S22" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="T22" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="74" t="s">
         <v>246</v>
       </c>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="83"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="76"/>
       <c r="J23" s="32"/>
       <c r="L23" s="6">
-        <f t="shared" ref="L23" si="25">IF(ISBLANK(D23),1,0)</f>
+        <f t="shared" ref="L23" si="27">IF(ISBLANK(D23),1,0)</f>
         <v>1</v>
       </c>
       <c r="M23" s="6" t="str">
-        <f t="shared" ref="M23" si="26">IF(ISBLANK(E23),"",E$3)</f>
+        <f t="shared" ref="M23" si="28">IF(ISBLANK(E23),"",E$3)</f>
         <v/>
       </c>
       <c r="N23" s="6" t="str">
-        <f t="shared" ref="N23" si="27">IF(ISBLANK(F23),"",F$3)</f>
+        <f t="shared" ref="N23" si="29">IF(ISBLANK(F23),"",F$3)</f>
         <v/>
       </c>
       <c r="O23" s="6" t="str">
-        <f t="shared" ref="O23" si="28">IF(ISBLANK(G23),"",G$3)</f>
+        <f t="shared" ref="O23" si="30">IF(ISBLANK(G23),"",G$3)</f>
         <v/>
       </c>
       <c r="P23" s="6" t="str">
-        <f t="shared" ref="P23" si="29">IF(ISBLANK(H23),"",H$3)</f>
+        <f t="shared" ref="P23" si="31">IF(ISBLANK(H23),"",H$3)</f>
         <v/>
       </c>
       <c r="Q23" s="29">
-        <f t="shared" ref="Q23" si="30">IF(COUNTA(E23:H23)&gt;1,1,0)</f>
+        <f t="shared" ref="Q23" si="32">IF(COUNTA(E23:H23)&gt;1,1,0)</f>
         <v>0</v>
       </c>
       <c r="R23" s="6">
-        <f t="shared" ref="R23" si="31">IF(COUNTA(E23:H23)=0,0,1)</f>
+        <f t="shared" ref="R23" si="33">IF(COUNTA(E23:H23)=0,0,1)</f>
         <v>0</v>
       </c>
       <c r="S23" s="7" t="str">
-        <f t="shared" ref="S23" si="32">IF(L23*(1-Q23)*R23=0,"",SUM(M23:P23)*I23)</f>
+        <f t="shared" ref="S23" si="34">IF(L23*(1-Q23)*R23=0,"",SUM(M23:P23)*I23)</f>
         <v/>
       </c>
       <c r="T23" s="6" t="str">
-        <f t="shared" ref="T23" si="33">IF(S23="","",I23)</f>
+        <f t="shared" ref="T23" si="35">IF(S23="","",I23)</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="57" t="s">
         <v>250</v>
       </c>
       <c r="C24" s="12" t="s">
@@ -16030,43 +16018,43 @@
       </c>
       <c r="J24" s="32"/>
       <c r="K24" s="27" t="str">
-        <f>IF(Q24&gt;0,$B$48,IF(AND(R24=0,L24&gt;0),$C$48,""))</f>
+        <f t="shared" ref="K24:K40" si="36">IF(Q24&gt;0,$B$48,IF(AND(R24=0,L24&gt;0),$C$48,""))</f>
         <v>Si la compétence doit être évaluée (case "non" vide), alors une case d'évaluation doit être cochée.</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M24" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N24" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O24" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P24" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q24" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R24" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S24" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T24" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -16086,49 +16074,49 @@
       </c>
       <c r="J25" s="32"/>
       <c r="K25" s="27" t="str">
-        <f>IF(Q25&gt;0,$B$48,IF(AND(R25=0,L25&gt;0),$C$48,""))</f>
+        <f t="shared" si="36"/>
         <v>Si la compétence doit être évaluée (case "non" vide), alors une case d'évaluation doit être cochée.</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M25" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N25" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O25" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P25" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q25" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S25" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T25" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="58"/>
-      <c r="B26" s="61"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="59"/>
       <c r="C26" s="16" t="s">
         <v>255</v>
       </c>
@@ -16142,223 +16130,223 @@
       </c>
       <c r="J26" s="32"/>
       <c r="K26" s="27" t="str">
-        <f>IF(Q26&gt;0,$B$48,IF(AND(R26=0,L26&gt;0),$C$48,""))</f>
+        <f t="shared" si="36"/>
         <v>Si la compétence doit être évaluée (case "non" vide), alors une case d'évaluation doit être cochée.</v>
       </c>
       <c r="L26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M26" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N26" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O26" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P26" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q26" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R26" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S26" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T26" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="77" t="s">
         <v>248</v>
       </c>
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="78" t="s">
         <v>251</v>
       </c>
-      <c r="C27" s="78" t="s">
+      <c r="C27" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="80"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="45"/>
       <c r="I27" s="22">
         <v>1</v>
       </c>
       <c r="J27" s="32"/>
       <c r="K27" s="27" t="str">
-        <f>IF(Q27&gt;0,$B$48,IF(AND(R27=0,L27&gt;0),$C$48,""))</f>
+        <f t="shared" si="36"/>
         <v>Si la compétence doit être évaluée (case "non" vide), alors une case d'évaluation doit être cochée.</v>
       </c>
       <c r="L27" s="6">
-        <f t="shared" ref="L27:L28" si="34">IF(ISBLANK(D27),1,0)</f>
+        <f t="shared" ref="L27:L28" si="37">IF(ISBLANK(D27),1,0)</f>
         <v>1</v>
       </c>
       <c r="M27" s="6" t="str">
-        <f t="shared" ref="M27:M28" si="35">IF(ISBLANK(E27),"",E$3)</f>
+        <f t="shared" ref="M27:M28" si="38">IF(ISBLANK(E27),"",E$3)</f>
         <v/>
       </c>
       <c r="N27" s="6" t="str">
-        <f t="shared" ref="N27:N28" si="36">IF(ISBLANK(F27),"",F$3)</f>
+        <f t="shared" ref="N27:N28" si="39">IF(ISBLANK(F27),"",F$3)</f>
         <v/>
       </c>
       <c r="O27" s="6" t="str">
-        <f t="shared" ref="O27:O28" si="37">IF(ISBLANK(G27),"",G$3)</f>
+        <f t="shared" ref="O27:O28" si="40">IF(ISBLANK(G27),"",G$3)</f>
         <v/>
       </c>
       <c r="P27" s="6" t="str">
-        <f t="shared" ref="P27:P28" si="38">IF(ISBLANK(H27),"",H$3)</f>
+        <f t="shared" ref="P27:P28" si="41">IF(ISBLANK(H27),"",H$3)</f>
         <v/>
       </c>
       <c r="Q27" s="29">
-        <f t="shared" ref="Q27:Q28" si="39">IF(COUNTA(E27:H27)&gt;1,1,0)</f>
+        <f t="shared" ref="Q27:Q28" si="42">IF(COUNTA(E27:H27)&gt;1,1,0)</f>
         <v>0</v>
       </c>
       <c r="R27" s="6">
-        <f t="shared" ref="R27:R28" si="40">IF(COUNTA(E27:H27)=0,0,1)</f>
+        <f t="shared" ref="R27:R28" si="43">IF(COUNTA(E27:H27)=0,0,1)</f>
         <v>0</v>
       </c>
       <c r="S27" s="7" t="str">
-        <f t="shared" ref="S27:S28" si="41">IF(L27*(1-Q27)*R27=0,"",SUM(M27:P27)*I27)</f>
+        <f t="shared" ref="S27:S28" si="44">IF(L27*(1-Q27)*R27=0,"",SUM(M27:P27)*I27)</f>
         <v/>
       </c>
       <c r="T27" s="6" t="str">
-        <f t="shared" ref="T27:T28" si="42">IF(S27="","",I27)</f>
+        <f t="shared" ref="T27:T28" si="45">IF(S27="","",I27)</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="72"/>
       <c r="B28" s="73"/>
-      <c r="C28" s="78" t="s">
+      <c r="C28" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="80"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="45"/>
       <c r="I28" s="22">
         <v>1</v>
       </c>
       <c r="J28" s="32"/>
       <c r="K28" s="27" t="str">
-        <f>IF(Q28&gt;0,$B$48,IF(AND(R28=0,L28&gt;0),$C$48,""))</f>
+        <f t="shared" si="36"/>
         <v>Si la compétence doit être évaluée (case "non" vide), alors une case d'évaluation doit être cochée.</v>
       </c>
       <c r="L28" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="M28" s="6" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N28" s="6" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="O28" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="P28" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="Q28" s="29">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="R28" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="S28" s="7" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="T28" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="72"/>
       <c r="B29" s="73"/>
-      <c r="C29" s="78" t="s">
+      <c r="C29" s="43" t="s">
         <v>258</v>
       </c>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="80"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="45"/>
       <c r="I29" s="22">
         <v>1</v>
       </c>
       <c r="J29" s="32"/>
       <c r="K29" s="27" t="str">
-        <f>IF(Q29&gt;0,$B$48,IF(AND(R29=0,L29&gt;0),$C$48,""))</f>
+        <f t="shared" si="36"/>
         <v>Si la compétence doit être évaluée (case "non" vide), alors une case d'évaluation doit être cochée.</v>
       </c>
       <c r="L29" s="6">
-        <f t="shared" ref="L29" si="43">IF(ISBLANK(D29),1,0)</f>
+        <f t="shared" ref="L29" si="46">IF(ISBLANK(D29),1,0)</f>
         <v>1</v>
       </c>
       <c r="M29" s="6" t="str">
-        <f t="shared" ref="M29" si="44">IF(ISBLANK(E29),"",E$3)</f>
+        <f t="shared" ref="M29" si="47">IF(ISBLANK(E29),"",E$3)</f>
         <v/>
       </c>
       <c r="N29" s="6" t="str">
-        <f t="shared" ref="N29" si="45">IF(ISBLANK(F29),"",F$3)</f>
+        <f t="shared" ref="N29" si="48">IF(ISBLANK(F29),"",F$3)</f>
         <v/>
       </c>
       <c r="O29" s="6" t="str">
-        <f t="shared" ref="O29" si="46">IF(ISBLANK(G29),"",G$3)</f>
+        <f t="shared" ref="O29" si="49">IF(ISBLANK(G29),"",G$3)</f>
         <v/>
       </c>
       <c r="P29" s="6" t="str">
-        <f t="shared" ref="P29" si="47">IF(ISBLANK(H29),"",H$3)</f>
+        <f t="shared" ref="P29" si="50">IF(ISBLANK(H29),"",H$3)</f>
         <v/>
       </c>
       <c r="Q29" s="29">
-        <f t="shared" ref="Q29" si="48">IF(COUNTA(E29:H29)&gt;1,1,0)</f>
+        <f t="shared" ref="Q29" si="51">IF(COUNTA(E29:H29)&gt;1,1,0)</f>
         <v>0</v>
       </c>
       <c r="R29" s="6">
-        <f t="shared" ref="R29" si="49">IF(COUNTA(E29:H29)=0,0,1)</f>
+        <f t="shared" ref="R29" si="52">IF(COUNTA(E29:H29)=0,0,1)</f>
         <v>0</v>
       </c>
       <c r="S29" s="7" t="str">
-        <f t="shared" ref="S29" si="50">IF(L29*(1-Q29)*R29=0,"",SUM(M29:P29)*I29)</f>
+        <f t="shared" ref="S29" si="53">IF(L29*(1-Q29)*R29=0,"",SUM(M29:P29)*I29)</f>
         <v/>
       </c>
       <c r="T29" s="6" t="str">
-        <f t="shared" ref="T29" si="51">IF(S29="","",I29)</f>
+        <f t="shared" ref="T29" si="54">IF(S29="","",I29)</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="54" t="s">
         <v>249</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="57" t="s">
         <v>252</v>
       </c>
       <c r="C30" s="12" t="s">
@@ -16374,43 +16362,43 @@
       </c>
       <c r="J30" s="32"/>
       <c r="K30" s="27" t="str">
-        <f>IF(Q30&gt;0,$B$48,IF(AND(R30=0,L30&gt;0),$C$48,""))</f>
+        <f t="shared" si="36"/>
         <v>Si la compétence doit être évaluée (case "non" vide), alors une case d'évaluation doit être cochée.</v>
       </c>
       <c r="L30" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M30" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N30" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O30" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P30" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q30" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R30" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S30" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T30" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -16430,43 +16418,43 @@
       </c>
       <c r="J31" s="32"/>
       <c r="K31" s="27" t="str">
-        <f>IF(Q31&gt;0,$B$48,IF(AND(R31=0,L31&gt;0),$C$48,""))</f>
+        <f t="shared" si="36"/>
         <v>Si la compétence doit être évaluée (case "non" vide), alors une case d'évaluation doit être cochée.</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M31" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N31" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O31" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P31" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q31" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S31" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T31" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -16486,50 +16474,50 @@
       </c>
       <c r="J32" s="32"/>
       <c r="K32" s="27" t="str">
-        <f>IF(Q32&gt;0,$B$48,IF(AND(R32=0,L32&gt;0),$C$48,""))</f>
+        <f t="shared" si="36"/>
         <v>Si la compétence doit être évaluée (case "non" vide), alors une case d'évaluation doit être cochée.</v>
       </c>
       <c r="L32" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M32" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N32" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O32" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P32" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q32" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R32" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S32" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T32" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="72"/>
       <c r="B33" s="73"/>
-      <c r="C33" s="76" t="s">
+      <c r="C33" s="41" t="s">
         <v>262</v>
       </c>
       <c r="D33" s="19"/>
@@ -16537,52 +16525,52 @@
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
       <c r="H33" s="34"/>
-      <c r="I33" s="77"/>
+      <c r="I33" s="42"/>
       <c r="J33" s="32"/>
       <c r="K33" s="27" t="str">
-        <f>IF(Q33&gt;0,$B$48,IF(AND(R33=0,L33&gt;0),$C$48,""))</f>
+        <f t="shared" si="36"/>
         <v>Si la compétence doit être évaluée (case "non" vide), alors une case d'évaluation doit être cochée.</v>
       </c>
       <c r="L33" s="6">
-        <f t="shared" ref="L33" si="52">IF(ISBLANK(D33),1,0)</f>
+        <f t="shared" ref="L33" si="55">IF(ISBLANK(D33),1,0)</f>
         <v>1</v>
       </c>
       <c r="M33" s="6" t="str">
-        <f t="shared" ref="M33" si="53">IF(ISBLANK(E33),"",E$3)</f>
+        <f t="shared" ref="M33" si="56">IF(ISBLANK(E33),"",E$3)</f>
         <v/>
       </c>
       <c r="N33" s="6" t="str">
-        <f t="shared" ref="N33" si="54">IF(ISBLANK(F33),"",F$3)</f>
+        <f t="shared" ref="N33" si="57">IF(ISBLANK(F33),"",F$3)</f>
         <v/>
       </c>
       <c r="O33" s="6" t="str">
-        <f t="shared" ref="O33" si="55">IF(ISBLANK(G33),"",G$3)</f>
+        <f t="shared" ref="O33" si="58">IF(ISBLANK(G33),"",G$3)</f>
         <v/>
       </c>
       <c r="P33" s="6" t="str">
-        <f t="shared" ref="P33" si="56">IF(ISBLANK(H33),"",H$3)</f>
+        <f t="shared" ref="P33" si="59">IF(ISBLANK(H33),"",H$3)</f>
         <v/>
       </c>
       <c r="Q33" s="29">
-        <f t="shared" ref="Q33" si="57">IF(COUNTA(E33:H33)&gt;1,1,0)</f>
+        <f t="shared" ref="Q33" si="60">IF(COUNTA(E33:H33)&gt;1,1,0)</f>
         <v>0</v>
       </c>
       <c r="R33" s="6">
-        <f t="shared" ref="R33" si="58">IF(COUNTA(E33:H33)=0,0,1)</f>
+        <f t="shared" ref="R33" si="61">IF(COUNTA(E33:H33)=0,0,1)</f>
         <v>0</v>
       </c>
       <c r="S33" s="7" t="str">
-        <f t="shared" ref="S33" si="59">IF(L33*(1-Q33)*R33=0,"",SUM(M33:P33)*I33)</f>
+        <f t="shared" ref="S33" si="62">IF(L33*(1-Q33)*R33=0,"",SUM(M33:P33)*I33)</f>
         <v/>
       </c>
       <c r="T33" s="6" t="str">
-        <f t="shared" ref="T33" si="60">IF(S33="","",I33)</f>
+        <f t="shared" ref="T33" si="63">IF(S33="","",I33)</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="58"/>
-      <c r="B34" s="61"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="59"/>
       <c r="C34" s="16" t="s">
         <v>263</v>
       </c>
@@ -16596,105 +16584,105 @@
       </c>
       <c r="J34" s="32"/>
       <c r="K34" s="27" t="str">
-        <f>IF(Q34&gt;0,$B$48,IF(AND(R34=0,L34&gt;0),$C$48,""))</f>
+        <f t="shared" si="36"/>
         <v>Si la compétence doit être évaluée (case "non" vide), alors une case d'évaluation doit être cochée.</v>
       </c>
       <c r="L34" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M34" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N34" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O34" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P34" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q34" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R34" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S34" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T34" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
       <c r="J35" s="33"/>
       <c r="K35" s="27" t="str">
-        <f>IF(Q35&gt;0,$B$48,IF(AND(R35=0,L35&gt;0),$C$48,""))</f>
+        <f t="shared" si="36"/>
         <v>Si la compétence doit être évaluée (case "non" vide), alors une case d'évaluation doit être cochée.</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M35" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N35" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O35" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P35" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q35" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R35" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S35" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T35" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="56" t="s">
+      <c r="A36" s="54" t="s">
         <v>264</v>
       </c>
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="57" t="s">
         <v>265</v>
       </c>
       <c r="C36" s="12" t="s">
@@ -16712,43 +16700,43 @@
       </c>
       <c r="J36" s="32"/>
       <c r="K36" s="27" t="str">
-        <f>IF(Q36&gt;0,$B$48,IF(AND(R36=0,L36&gt;0),$C$48,""))</f>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="L36" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M36" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N36" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O36" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P36" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q36" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R36" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="S36" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T36" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -16770,43 +16758,43 @@
       </c>
       <c r="J37" s="32"/>
       <c r="K37" s="27" t="str">
-        <f>IF(Q37&gt;0,$B$48,IF(AND(R37=0,L37&gt;0),$C$48,""))</f>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="L37" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M37" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N37" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O37" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P37" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="Q37" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R37" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="S37" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="T37" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -16828,49 +16816,49 @@
       </c>
       <c r="J38" s="32"/>
       <c r="K38" s="27" t="str">
-        <f>IF(Q38&gt;0,$B$48,IF(AND(R38=0,L38&gt;0),$C$48,""))</f>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="L38" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M38" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N38" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O38" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P38" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="Q38" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R38" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="S38" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="T38" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
-      <c r="B39" s="60"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="9" t="s">
         <v>269</v>
       </c>
@@ -16886,49 +16874,49 @@
       </c>
       <c r="J39" s="32"/>
       <c r="K39" s="27" t="str">
-        <f>IF(Q39&gt;0,$B$48,IF(AND(R39=0,L39&gt;0),$C$48,""))</f>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="L39" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M39" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N39" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O39" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P39" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="Q39" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R39" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="S39" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="T39" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="58"/>
-      <c r="B40" s="61"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="59"/>
       <c r="C40" s="16" t="s">
         <v>270</v>
       </c>
@@ -16942,56 +16930,56 @@
       </c>
       <c r="J40" s="32"/>
       <c r="K40" s="27" t="str">
-        <f>IF(Q40&gt;0,$B$48,IF(AND(R40=0,L40&gt;0),$C$48,""))</f>
+        <f t="shared" si="36"/>
         <v>Si la compétence doit être évaluée (case "non" vide), alors une case d'évaluation doit être cochée.</v>
       </c>
       <c r="L40" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M40" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N40" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O40" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P40" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q40" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R40" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S40" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T40" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:21" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="53" t="s">
+      <c r="D41" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="55" t="str">
+      <c r="E41" s="68"/>
+      <c r="F41" s="69" t="str">
         <f>IF(AND(T41&gt;(U41/2),Q41=0),ROUNDUP(SUM(S5:S40)*20/U41*10,0)/10,"")</f>
         <v/>
       </c>
-      <c r="G41" s="55"/>
+      <c r="G41" s="69"/>
       <c r="H41" s="35" t="s">
         <v>62</v>
       </c>
@@ -17016,52 +17004,52 @@
       <c r="A42" s="1"/>
     </row>
     <row r="43" spans="1:21" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="67" t="s">
+      <c r="D43" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E43" s="68"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
       <c r="H43" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="110.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="48" t="s">
+      <c r="A44" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="63"/>
     </row>
     <row r="45" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
     </row>
     <row r="46" spans="1:21" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="48" t="s">
+      <c r="A46" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="48"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
     </row>
     <row r="47" spans="1:21" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
@@ -17100,6 +17088,24 @@
     <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="C44:I44"/>
     <mergeCell ref="A46:B46"/>
@@ -17114,51 +17120,33 @@
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
   </mergeCells>
   <conditionalFormatting sqref="D14:H22 C5:J12 D24:H34 D36:H40">
-    <cfRule type="expression" dxfId="19" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>NOT(ISBLANK($D5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:H22 E5:H12 E24:H34 E36:H40">
-    <cfRule type="expression" dxfId="18" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>$Q5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>NOT(ISBLANK(E5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:H12">
-    <cfRule type="expression" dxfId="16" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$Q6=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>NOT(ISBLANK(E6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K40">
-    <cfRule type="expression" dxfId="14" priority="134">
+    <cfRule type="expression" dxfId="1" priority="134">
       <formula>K5=$C$48</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="135">
+    <cfRule type="expression" dxfId="0" priority="135">
       <formula>OR(K5=$B$48,K5=$B$49,K5=$B$50)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/trunk/src/Grille_evaluation_STI2D_projet.xlsx
+++ b/trunk/src/Grille_evaluation_STI2D_projet.xlsx
@@ -22,7 +22,7 @@
     <definedName name="Cases_évaluation">AC!$D$5:$H$20,AC!$D$22:$H$33,AC!$D$35:$H$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">AC!$A$2:$I$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">EE!$A$2:$I$59</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Identification!$A$1:$E$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Identification!$A$1:$E$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">ITEC!$A$2:$I$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">SIN!$A$2:$I$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Soutenance!$A$2:$I$46</definedName>
@@ -312,7 +312,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="272">
   <si>
     <t>O7 - Imaginer une solution, répondre à un besoin</t>
   </si>
@@ -1205,12 +1205,15 @@
   <si>
     <t>Les écarts sont expliqués de manière cohérente pour valider une solution technique</t>
   </si>
+  <si>
+    <t>Nom du projet :</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1320,6 +1323,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1341,7 +1351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1820,11 +1830,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1959,6 +2021,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2132,10 +2197,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2145,6 +2206,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3054,141 +3139,153 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" customWidth="1"/>
-    <col min="3" max="3" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" customWidth="1"/>
+    <col min="3" max="3" width="2.42578125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="84"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="84"/>
-    </row>
-    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="85"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="107" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="106"/>
+    </row>
+    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="99" t="s">
+      <c r="B4" s="108"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="103"/>
-    </row>
-    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="E4" s="102"/>
+    </row>
+    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="99" t="s">
+      <c r="B5" s="110"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="103"/>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="104"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="106"/>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="95" t="s">
+      <c r="E5" s="102"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="103"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="105"/>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="98"/>
-    </row>
-    <row r="7" spans="1:5" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="92"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="94"/>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="95" t="s">
+      <c r="B7" s="97"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="99"/>
+    </row>
+    <row r="8" spans="1:5" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="93"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="95"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="98"/>
-    </row>
-    <row r="9" spans="1:5" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="92"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="94"/>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="87" t="s">
+      <c r="B9" s="97"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="99"/>
+    </row>
+    <row r="10" spans="1:5" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="93"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="95"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="86"/>
-    </row>
-    <row r="11" spans="1:5" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="89"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="91"/>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="87" t="s">
+      <c r="B11" s="89"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="87"/>
+    </row>
+    <row r="12" spans="1:5" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="90"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="92"/>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="86"/>
-    </row>
-    <row r="13" spans="1:5" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="92"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="94"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="99"/>
+    </row>
+    <row r="14" spans="1:5" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="93"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="95"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A13:E13"/>
+  <mergeCells count="12">
+    <mergeCell ref="A14:E14"/>
     <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="84" orientation="portrait" horizontalDpi="1200" r:id="rId1"/>
@@ -3224,30 +3321,30 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="66"/>
       <c r="J2" s="31"/>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="49" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="61"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="23" t="s">
         <v>29</v>
       </c>
@@ -3267,7 +3364,7 @@
         <v>30</v>
       </c>
       <c r="J3" s="32"/>
-      <c r="K3" s="48"/>
+      <c r="K3" s="49"/>
       <c r="L3" s="5" t="s">
         <v>66</v>
       </c>
@@ -3285,25 +3382,25 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="33"/>
       <c r="S4" s="7"/>
     </row>
     <row r="5" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="58" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -3360,8 +3457,8 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="B6" s="58"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
@@ -3418,8 +3515,8 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="58"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="9" t="s">
         <v>3</v>
       </c>
@@ -3476,8 +3573,8 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="9" t="s">
         <v>4</v>
       </c>
@@ -3534,8 +3631,8 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56"/>
-      <c r="B9" s="59"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="16" t="s">
         <v>33</v>
       </c>
@@ -3594,10 +3691,10 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="58" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -3656,8 +3753,8 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="58"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="9" t="s">
         <v>36</v>
       </c>
@@ -3716,8 +3813,8 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="58"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="9" t="s">
         <v>37</v>
       </c>
@@ -3774,8 +3871,8 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="58"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="9" t="s">
         <v>38</v>
       </c>
@@ -3832,8 +3929,8 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="58"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="9" t="s">
         <v>39</v>
       </c>
@@ -3888,8 +3985,8 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
-      <c r="B15" s="58"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="9" t="s">
         <v>40</v>
       </c>
@@ -3944,8 +4041,8 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="56"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="16" t="s">
         <v>6</v>
       </c>
@@ -4000,10 +4097,10 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="58" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -4060,8 +4157,8 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
-      <c r="B18" s="58"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
@@ -4116,8 +4213,8 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="B19" s="58"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="9" t="s">
         <v>44</v>
       </c>
@@ -4172,8 +4269,8 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="56"/>
-      <c r="B20" s="59"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="16" t="s">
         <v>45</v>
       </c>
@@ -4228,17 +4325,17 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
       <c r="J21" s="33"/>
       <c r="K21" s="27" t="str">
         <f t="shared" si="1"/>
@@ -4282,10 +4379,10 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="58" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -4342,8 +4439,8 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
-      <c r="B23" s="58"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="9" t="s">
         <v>10</v>
       </c>
@@ -4398,8 +4495,8 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
-      <c r="B24" s="58"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="9" t="s">
         <v>11</v>
       </c>
@@ -4454,8 +4551,8 @@
       </c>
     </row>
     <row r="25" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="56"/>
-      <c r="B25" s="59"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="16" t="s">
         <v>12</v>
       </c>
@@ -4510,10 +4607,10 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="58" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="12" t="s">
@@ -4570,8 +4667,8 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
-      <c r="B27" s="58"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="9" t="s">
         <v>14</v>
       </c>
@@ -4628,8 +4725,8 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
-      <c r="B28" s="58"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="59"/>
       <c r="C28" s="9" t="s">
         <v>15</v>
       </c>
@@ -4684,8 +4781,8 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56"/>
-      <c r="B29" s="59"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="16" t="s">
         <v>50</v>
       </c>
@@ -4742,10 +4839,10 @@
       </c>
     </row>
     <row r="30" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="58" t="s">
         <v>52</v>
       </c>
       <c r="C30" s="12" t="s">
@@ -4802,8 +4899,8 @@
       </c>
     </row>
     <row r="31" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
-      <c r="B31" s="58"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="59"/>
       <c r="C31" s="9" t="s">
         <v>53</v>
       </c>
@@ -4858,8 +4955,8 @@
       </c>
     </row>
     <row r="32" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
-      <c r="B32" s="58"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="59"/>
       <c r="C32" s="9" t="s">
         <v>37</v>
       </c>
@@ -4914,8 +5011,8 @@
       </c>
     </row>
     <row r="33" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="56"/>
-      <c r="B33" s="59"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="16" t="s">
         <v>45</v>
       </c>
@@ -4970,17 +5067,17 @@
       </c>
     </row>
     <row r="34" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="66" t="s">
+      <c r="A34" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
       <c r="J34" s="33"/>
       <c r="K34" s="27" t="str">
         <f t="shared" si="1"/>
@@ -5024,10 +5121,10 @@
       </c>
     </row>
     <row r="35" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="54" t="s">
+      <c r="A35" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="58" t="s">
         <v>55</v>
       </c>
       <c r="C35" s="12" t="s">
@@ -5084,8 +5181,8 @@
       </c>
     </row>
     <row r="36" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
-      <c r="B36" s="58"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="59"/>
       <c r="C36" s="9" t="s">
         <v>19</v>
       </c>
@@ -5142,8 +5239,8 @@
       </c>
     </row>
     <row r="37" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
-      <c r="B37" s="58"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="59"/>
       <c r="C37" s="9" t="s">
         <v>20</v>
       </c>
@@ -5200,8 +5297,8 @@
       </c>
     </row>
     <row r="38" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
-      <c r="B38" s="58"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="59"/>
       <c r="C38" s="9" t="s">
         <v>21</v>
       </c>
@@ -5256,8 +5353,8 @@
       </c>
     </row>
     <row r="39" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="56"/>
-      <c r="B39" s="59"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="60"/>
       <c r="C39" s="16" t="s">
         <v>22</v>
       </c>
@@ -5314,10 +5411,10 @@
       </c>
     </row>
     <row r="40" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="57" t="s">
+      <c r="B40" s="58" t="s">
         <v>57</v>
       </c>
       <c r="C40" s="12" t="s">
@@ -5376,8 +5473,8 @@
       </c>
     </row>
     <row r="41" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
-      <c r="B41" s="58"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="59"/>
       <c r="C41" s="9" t="s">
         <v>24</v>
       </c>
@@ -5434,8 +5531,8 @@
       </c>
     </row>
     <row r="42" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="56"/>
-      <c r="B42" s="59"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="60"/>
       <c r="C42" s="16" t="s">
         <v>25</v>
       </c>
@@ -5490,10 +5587,10 @@
       </c>
     </row>
     <row r="43" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="54" t="s">
+      <c r="A43" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="57" t="s">
+      <c r="B43" s="58" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="12" t="s">
@@ -5552,8 +5649,8 @@
       </c>
     </row>
     <row r="44" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
-      <c r="B44" s="58"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="59"/>
       <c r="C44" s="9" t="s">
         <v>61</v>
       </c>
@@ -5610,8 +5707,8 @@
       </c>
     </row>
     <row r="45" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="56"/>
-      <c r="B45" s="59"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="16" t="s">
         <v>26</v>
       </c>
@@ -5666,15 +5763,15 @@
       </c>
     </row>
     <row r="46" spans="1:21" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="67" t="s">
+      <c r="D46" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="E46" s="68"/>
-      <c r="F46" s="69" t="str">
+      <c r="E46" s="69"/>
+      <c r="F46" s="70" t="str">
         <f>IF(AND(T46&gt;(U46/2),Q46=0),ROUNDUP(SUM(S5:S45)*20/U46*10,0)/10,"")</f>
         <v/>
       </c>
-      <c r="G46" s="69"/>
+      <c r="G46" s="70"/>
       <c r="H46" s="35" t="s">
         <v>62</v>
       </c>
@@ -5699,28 +5796,28 @@
       <c r="A47" s="1"/>
     </row>
     <row r="48" spans="1:21" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="49" t="s">
+      <c r="D48" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="E48" s="50"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
       <c r="H48" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="110.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="62" t="s">
+      <c r="A49" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="62"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="63"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="64"/>
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="37"/>
@@ -5734,17 +5831,17 @@
       <c r="I50" s="38"/>
     </row>
     <row r="51" spans="1:9" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="62" t="s">
+      <c r="A51" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="62"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="63"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="63"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
     </row>
     <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
@@ -5912,30 +6009,30 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="66"/>
       <c r="J2" s="31"/>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="49" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="61"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="23" t="s">
         <v>29</v>
       </c>
@@ -5955,7 +6052,7 @@
         <v>30</v>
       </c>
       <c r="J3" s="32"/>
-      <c r="K3" s="48"/>
+      <c r="K3" s="49"/>
       <c r="L3" s="5" t="s">
         <v>66</v>
       </c>
@@ -5973,25 +6070,25 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="33"/>
       <c r="S4" s="7"/>
     </row>
     <row r="5" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="58" t="s">
         <v>92</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -6048,8 +6145,8 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="B6" s="58"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
@@ -6106,8 +6203,8 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="58"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="9" t="s">
         <v>3</v>
       </c>
@@ -6164,8 +6261,8 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="9" t="s">
         <v>94</v>
       </c>
@@ -6222,8 +6319,8 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56"/>
-      <c r="B9" s="59"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="16" t="s">
         <v>95</v>
       </c>
@@ -6282,10 +6379,10 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="58" t="s">
         <v>217</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -6344,8 +6441,8 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="58"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="9" t="s">
         <v>36</v>
       </c>
@@ -6404,8 +6501,8 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="58"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="9" t="s">
         <v>37</v>
       </c>
@@ -6462,8 +6559,8 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="58"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="9" t="s">
         <v>97</v>
       </c>
@@ -6520,8 +6617,8 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="58"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="9" t="s">
         <v>98</v>
       </c>
@@ -6576,8 +6673,8 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="56"/>
-      <c r="B15" s="59"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="16" t="s">
         <v>99</v>
       </c>
@@ -6632,10 +6729,10 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="58" t="s">
         <v>216</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -6692,8 +6789,8 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
-      <c r="B17" s="58"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="9" t="s">
         <v>101</v>
       </c>
@@ -6748,8 +6845,8 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="56"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="16" t="s">
         <v>102</v>
       </c>
@@ -6804,10 +6901,10 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="58" t="s">
         <v>104</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -6864,8 +6961,8 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="56"/>
-      <c r="B20" s="59"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="16" t="s">
         <v>106</v>
       </c>
@@ -6920,17 +7017,17 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
       <c r="J21" s="33"/>
       <c r="K21" s="27" t="str">
         <f t="shared" si="0"/>
@@ -6974,10 +7071,10 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="58" t="s">
         <v>107</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -7034,8 +7131,8 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
-      <c r="B23" s="58"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="9" t="s">
         <v>10</v>
       </c>
@@ -7090,8 +7187,8 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="56"/>
-      <c r="B24" s="59"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="16" t="s">
         <v>108</v>
       </c>
@@ -7146,10 +7243,10 @@
       </c>
     </row>
     <row r="25" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="58" t="s">
         <v>109</v>
       </c>
       <c r="C25" s="12" t="s">
@@ -7206,8 +7303,8 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="58"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="59"/>
       <c r="C26" s="9" t="s">
         <v>110</v>
       </c>
@@ -7264,8 +7361,8 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
-      <c r="B27" s="58"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="9" t="s">
         <v>111</v>
       </c>
@@ -7320,8 +7417,8 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="56"/>
-      <c r="B28" s="59"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="16" t="s">
         <v>112</v>
       </c>
@@ -7378,10 +7475,10 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="58" t="s">
         <v>113</v>
       </c>
       <c r="C29" s="12" t="s">
@@ -7438,8 +7535,8 @@
       </c>
     </row>
     <row r="30" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="70"/>
-      <c r="B30" s="71"/>
+      <c r="A30" s="71"/>
+      <c r="B30" s="72"/>
       <c r="C30" s="9" t="s">
         <v>114</v>
       </c>
@@ -7494,8 +7591,8 @@
       </c>
     </row>
     <row r="31" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
-      <c r="B31" s="58"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="59"/>
       <c r="C31" s="9" t="s">
         <v>13</v>
       </c>
@@ -7550,8 +7647,8 @@
       </c>
     </row>
     <row r="32" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
-      <c r="B32" s="58"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="59"/>
       <c r="C32" s="9" t="s">
         <v>14</v>
       </c>
@@ -7606,8 +7703,8 @@
       </c>
     </row>
     <row r="33" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="56"/>
-      <c r="B33" s="59"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="16" t="s">
         <v>15</v>
       </c>
@@ -7662,10 +7759,10 @@
       </c>
     </row>
     <row r="34" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="58" t="s">
         <v>116</v>
       </c>
       <c r="C34" s="12" t="s">
@@ -7722,8 +7819,8 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="70"/>
-      <c r="B35" s="71"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="9" t="s">
         <v>118</v>
       </c>
@@ -7778,8 +7875,8 @@
       </c>
     </row>
     <row r="36" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="56"/>
-      <c r="B36" s="59"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="16" t="s">
         <v>15</v>
       </c>
@@ -7834,17 +7931,17 @@
       </c>
     </row>
     <row r="37" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="66" t="s">
+      <c r="A37" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
       <c r="J37" s="33"/>
       <c r="K37" s="27" t="str">
         <f t="shared" si="0"/>
@@ -7888,10 +7985,10 @@
       </c>
     </row>
     <row r="38" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="58" t="s">
         <v>119</v>
       </c>
       <c r="C38" s="12" t="s">
@@ -7948,8 +8045,8 @@
       </c>
     </row>
     <row r="39" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
-      <c r="B39" s="58"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="59"/>
       <c r="C39" s="9" t="s">
         <v>120</v>
       </c>
@@ -8006,8 +8103,8 @@
       </c>
     </row>
     <row r="40" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="56"/>
-      <c r="B40" s="59"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="60"/>
       <c r="C40" s="16" t="s">
         <v>121</v>
       </c>
@@ -8064,10 +8161,10 @@
       </c>
     </row>
     <row r="41" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="58" t="s">
         <v>122</v>
       </c>
       <c r="C41" s="12" t="s">
@@ -8126,8 +8223,8 @@
       </c>
     </row>
     <row r="42" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="70"/>
-      <c r="B42" s="71"/>
+      <c r="A42" s="71"/>
+      <c r="B42" s="72"/>
       <c r="C42" s="9" t="s">
         <v>124</v>
       </c>
@@ -8184,8 +8281,8 @@
       </c>
     </row>
     <row r="43" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
-      <c r="B43" s="58"/>
+      <c r="A43" s="56"/>
+      <c r="B43" s="59"/>
       <c r="C43" s="9" t="s">
         <v>125</v>
       </c>
@@ -8242,8 +8339,8 @@
       </c>
     </row>
     <row r="44" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="56"/>
-      <c r="B44" s="59"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="16" t="s">
         <v>126</v>
       </c>
@@ -8298,10 +8395,10 @@
       </c>
     </row>
     <row r="45" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="54" t="s">
+      <c r="A45" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="57" t="s">
+      <c r="B45" s="58" t="s">
         <v>127</v>
       </c>
       <c r="C45" s="12" t="s">
@@ -8360,8 +8457,8 @@
       </c>
     </row>
     <row r="46" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="70"/>
-      <c r="B46" s="71"/>
+      <c r="A46" s="71"/>
+      <c r="B46" s="72"/>
       <c r="C46" s="9" t="s">
         <v>128</v>
       </c>
@@ -8418,8 +8515,8 @@
       </c>
     </row>
     <row r="47" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="55"/>
-      <c r="B47" s="58"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="59"/>
       <c r="C47" s="9" t="s">
         <v>129</v>
       </c>
@@ -8476,8 +8573,8 @@
       </c>
     </row>
     <row r="48" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="56"/>
-      <c r="B48" s="59"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="60"/>
       <c r="C48" s="16" t="s">
         <v>15</v>
       </c>
@@ -8532,15 +8629,15 @@
       </c>
     </row>
     <row r="49" spans="1:21" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="67" t="s">
+      <c r="D49" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="68"/>
-      <c r="F49" s="69" t="str">
+      <c r="E49" s="69"/>
+      <c r="F49" s="70" t="str">
         <f>IF(AND(T49&gt;(U49/2),Q49=0),ROUNDUP(SUM(S5:S48)*20/U49*10,0)/10,"")</f>
         <v/>
       </c>
-      <c r="G49" s="69"/>
+      <c r="G49" s="70"/>
       <c r="H49" s="35" t="s">
         <v>62</v>
       </c>
@@ -8565,28 +8662,28 @@
       <c r="A50" s="1"/>
     </row>
     <row r="51" spans="1:21" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D51" s="49" t="s">
+      <c r="D51" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="E51" s="50"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
       <c r="H51" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="110.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="62" t="s">
+      <c r="A52" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="B52" s="62"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="63"/>
-      <c r="H52" s="63"/>
-      <c r="I52" s="63"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="64"/>
     </row>
     <row r="53" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="37"/>
@@ -8600,17 +8697,17 @@
       <c r="I53" s="38"/>
     </row>
     <row r="54" spans="1:21" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="62" t="s">
+      <c r="A54" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="62"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
     </row>
     <row r="55" spans="1:21" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
@@ -8759,30 +8856,30 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="66"/>
       <c r="J2" s="31"/>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="49" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="61"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="23" t="s">
         <v>29</v>
       </c>
@@ -8802,7 +8899,7 @@
         <v>30</v>
       </c>
       <c r="J3" s="32"/>
-      <c r="K3" s="48"/>
+      <c r="K3" s="49"/>
       <c r="L3" s="5" t="s">
         <v>66</v>
       </c>
@@ -8820,25 +8917,25 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="33"/>
       <c r="S4" s="7"/>
     </row>
     <row r="5" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="58" t="s">
         <v>130</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -8895,8 +8992,8 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="B6" s="58"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
@@ -8953,8 +9050,8 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="58"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="9" t="s">
         <v>3</v>
       </c>
@@ -9011,8 +9108,8 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="9" t="s">
         <v>37</v>
       </c>
@@ -9069,8 +9166,8 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
-      <c r="B9" s="58"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="9" t="s">
         <v>94</v>
       </c>
@@ -9127,8 +9224,8 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
-      <c r="B10" s="58"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="9" t="s">
         <v>95</v>
       </c>
@@ -9185,8 +9282,8 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="56"/>
-      <c r="B11" s="59"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="16" t="s">
         <v>96</v>
       </c>
@@ -9245,10 +9342,10 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="58" t="s">
         <v>131</v>
       </c>
       <c r="C12" s="12" t="s">
@@ -9307,8 +9404,8 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="58"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="9" t="s">
         <v>98</v>
       </c>
@@ -9367,8 +9464,8 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="58"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="9" t="s">
         <v>134</v>
       </c>
@@ -9425,8 +9522,8 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
-      <c r="B15" s="58"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="9" t="s">
         <v>36</v>
       </c>
@@ -9483,8 +9580,8 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="58"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="9" t="s">
         <v>135</v>
       </c>
@@ -9539,8 +9636,8 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="56"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="16" t="s">
         <v>136</v>
       </c>
@@ -9595,10 +9692,10 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="58" t="s">
         <v>132</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -9655,8 +9752,8 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="70"/>
-      <c r="B19" s="71"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="9" t="s">
         <v>138</v>
       </c>
@@ -9711,8 +9808,8 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
-      <c r="B20" s="71"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="72"/>
       <c r="C20" s="9" t="s">
         <v>106</v>
       </c>
@@ -9767,8 +9864,8 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="56"/>
-      <c r="B21" s="59"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="16" t="s">
         <v>139</v>
       </c>
@@ -9823,10 +9920,10 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="58" t="s">
         <v>133</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -9883,8 +9980,8 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="72"/>
-      <c r="B23" s="73"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="74"/>
       <c r="C23" s="9" t="s">
         <v>141</v>
       </c>
@@ -9939,8 +10036,8 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="72"/>
-      <c r="B24" s="73"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
       <c r="C24" s="9" t="s">
         <v>106</v>
       </c>
@@ -9995,8 +10092,8 @@
       </c>
     </row>
     <row r="25" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="56"/>
-      <c r="B25" s="59"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="16" t="s">
         <v>142</v>
       </c>
@@ -10051,17 +10148,17 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
       <c r="J26" s="33"/>
       <c r="K26" s="27" t="str">
         <f t="shared" si="0"/>
@@ -10105,10 +10202,10 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="58" t="s">
         <v>143</v>
       </c>
       <c r="C27" s="12" t="s">
@@ -10165,8 +10262,8 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
-      <c r="B28" s="58"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="59"/>
       <c r="C28" s="9" t="s">
         <v>148</v>
       </c>
@@ -10221,8 +10318,8 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56"/>
-      <c r="B29" s="59"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="16" t="s">
         <v>108</v>
       </c>
@@ -10277,10 +10374,10 @@
       </c>
     </row>
     <row r="30" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="58" t="s">
         <v>144</v>
       </c>
       <c r="C30" s="12" t="s">
@@ -10337,8 +10434,8 @@
       </c>
     </row>
     <row r="31" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
-      <c r="B31" s="58"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="59"/>
       <c r="C31" s="9" t="s">
         <v>149</v>
       </c>
@@ -10395,8 +10492,8 @@
       </c>
     </row>
     <row r="32" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
-      <c r="B32" s="58"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="59"/>
       <c r="C32" s="9" t="s">
         <v>150</v>
       </c>
@@ -10451,8 +10548,8 @@
       </c>
     </row>
     <row r="33" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="56"/>
-      <c r="B33" s="59"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="16" t="s">
         <v>112</v>
       </c>
@@ -10509,10 +10606,10 @@
       </c>
     </row>
     <row r="34" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="58" t="s">
         <v>145</v>
       </c>
       <c r="C34" s="12" t="s">
@@ -10569,8 +10666,8 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="70"/>
-      <c r="B35" s="71"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="9" t="s">
         <v>118</v>
       </c>
@@ -10625,8 +10722,8 @@
       </c>
     </row>
     <row r="36" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="56"/>
-      <c r="B36" s="59"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="16" t="s">
         <v>151</v>
       </c>
@@ -10681,10 +10778,10 @@
       </c>
     </row>
     <row r="37" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="58" t="s">
         <v>146</v>
       </c>
       <c r="C37" s="12" t="s">
@@ -10741,8 +10838,8 @@
       </c>
     </row>
     <row r="38" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="70"/>
-      <c r="B38" s="71"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="72"/>
       <c r="C38" s="9" t="s">
         <v>114</v>
       </c>
@@ -10797,8 +10894,8 @@
       </c>
     </row>
     <row r="39" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="70"/>
-      <c r="B39" s="71"/>
+      <c r="A39" s="71"/>
+      <c r="B39" s="72"/>
       <c r="C39" s="9" t="s">
         <v>13</v>
       </c>
@@ -10853,8 +10950,8 @@
       </c>
     </row>
     <row r="40" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="70"/>
-      <c r="B40" s="71"/>
+      <c r="A40" s="71"/>
+      <c r="B40" s="72"/>
       <c r="C40" s="9" t="s">
         <v>14</v>
       </c>
@@ -10909,8 +11006,8 @@
       </c>
     </row>
     <row r="41" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="56"/>
-      <c r="B41" s="59"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="60"/>
       <c r="C41" s="16" t="s">
         <v>151</v>
       </c>
@@ -10965,17 +11062,17 @@
       </c>
     </row>
     <row r="42" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="66" t="s">
+      <c r="A42" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="66"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
       <c r="J42" s="33"/>
       <c r="K42" s="27" t="str">
         <f t="shared" si="26"/>
@@ -11019,10 +11116,10 @@
       </c>
     </row>
     <row r="43" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="54" t="s">
+      <c r="A43" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="57" t="s">
+      <c r="B43" s="58" t="s">
         <v>152</v>
       </c>
       <c r="C43" s="12" t="s">
@@ -11079,8 +11176,8 @@
       </c>
     </row>
     <row r="44" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
-      <c r="B44" s="58"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="59"/>
       <c r="C44" s="9" t="s">
         <v>114</v>
       </c>
@@ -11137,8 +11234,8 @@
       </c>
     </row>
     <row r="45" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="56"/>
-      <c r="B45" s="59"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="16" t="s">
         <v>153</v>
       </c>
@@ -11195,10 +11292,10 @@
       </c>
     </row>
     <row r="46" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="57" t="s">
+      <c r="B46" s="58" t="s">
         <v>154</v>
       </c>
       <c r="C46" s="12" t="s">
@@ -11257,8 +11354,8 @@
       </c>
     </row>
     <row r="47" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="70"/>
-      <c r="B47" s="71"/>
+      <c r="A47" s="71"/>
+      <c r="B47" s="72"/>
       <c r="C47" s="9" t="s">
         <v>124</v>
       </c>
@@ -11315,8 +11412,8 @@
       </c>
     </row>
     <row r="48" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="55"/>
-      <c r="B48" s="58"/>
+      <c r="A48" s="56"/>
+      <c r="B48" s="59"/>
       <c r="C48" s="9" t="s">
         <v>125</v>
       </c>
@@ -11373,8 +11470,8 @@
       </c>
     </row>
     <row r="49" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="56"/>
-      <c r="B49" s="59"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="60"/>
       <c r="C49" s="16" t="s">
         <v>156</v>
       </c>
@@ -11429,10 +11526,10 @@
       </c>
     </row>
     <row r="50" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="54" t="s">
+      <c r="A50" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="58" t="s">
         <v>157</v>
       </c>
       <c r="C50" s="12" t="s">
@@ -11491,8 +11588,8 @@
       </c>
     </row>
     <row r="51" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="70"/>
-      <c r="B51" s="71"/>
+      <c r="A51" s="71"/>
+      <c r="B51" s="72"/>
       <c r="C51" s="9" t="s">
         <v>159</v>
       </c>
@@ -11549,8 +11646,8 @@
       </c>
     </row>
     <row r="52" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
-      <c r="B52" s="58"/>
+      <c r="A52" s="56"/>
+      <c r="B52" s="59"/>
       <c r="C52" s="9" t="s">
         <v>160</v>
       </c>
@@ -11607,8 +11704,8 @@
       </c>
     </row>
     <row r="53" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="56"/>
-      <c r="B53" s="59"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="60"/>
       <c r="C53" s="16" t="s">
         <v>15</v>
       </c>
@@ -11663,15 +11760,15 @@
       </c>
     </row>
     <row r="54" spans="1:21" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="67" t="s">
+      <c r="D54" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="68"/>
-      <c r="F54" s="69" t="str">
+      <c r="E54" s="69"/>
+      <c r="F54" s="70" t="str">
         <f>IF(AND(T54&gt;(U54/2),Q54=0),ROUNDUP(SUM(S5:S53)*20/U54*10,0)/10,"")</f>
         <v/>
       </c>
-      <c r="G54" s="69"/>
+      <c r="G54" s="70"/>
       <c r="H54" s="35" t="s">
         <v>62</v>
       </c>
@@ -11696,28 +11793,28 @@
       <c r="A55" s="1"/>
     </row>
     <row r="56" spans="1:21" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D56" s="49" t="s">
+      <c r="D56" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="E56" s="50"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
       <c r="H56" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="110.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="62" t="s">
+      <c r="A57" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="62"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="63"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="63"/>
-      <c r="H57" s="63"/>
-      <c r="I57" s="63"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="64"/>
     </row>
     <row r="58" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="37"/>
@@ -11731,17 +11828,17 @@
       <c r="I58" s="38"/>
     </row>
     <row r="59" spans="1:21" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="62" t="s">
+      <c r="A59" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="B59" s="62"/>
-      <c r="C59" s="63"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="63"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="63"/>
-      <c r="H59" s="63"/>
-      <c r="I59" s="63"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="64"/>
     </row>
     <row r="60" spans="1:21" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
@@ -11897,30 +11994,30 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="66"/>
       <c r="J2" s="31"/>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="49" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="61"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="23" t="s">
         <v>29</v>
       </c>
@@ -11940,7 +12037,7 @@
         <v>30</v>
       </c>
       <c r="J3" s="32"/>
-      <c r="K3" s="48"/>
+      <c r="K3" s="49"/>
       <c r="L3" s="5" t="s">
         <v>66</v>
       </c>
@@ -11958,25 +12055,25 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="33"/>
       <c r="S4" s="7"/>
     </row>
     <row r="5" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="58" t="s">
         <v>161</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -12033,8 +12130,8 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="B6" s="58"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="9" t="s">
         <v>163</v>
       </c>
@@ -12091,8 +12188,8 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="58"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="9" t="s">
         <v>165</v>
       </c>
@@ -12149,8 +12246,8 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="56"/>
-      <c r="B8" s="59"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="16" t="s">
         <v>164</v>
       </c>
@@ -12209,10 +12306,10 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="58" t="s">
         <v>166</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -12271,8 +12368,8 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
-      <c r="B10" s="58"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="9" t="s">
         <v>168</v>
       </c>
@@ -12331,8 +12428,8 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="58"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="9" t="s">
         <v>169</v>
       </c>
@@ -12389,8 +12486,8 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="58"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="9" t="s">
         <v>170</v>
       </c>
@@ -12445,8 +12542,8 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="56"/>
-      <c r="B13" s="59"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="16" t="s">
         <v>171</v>
       </c>
@@ -12501,10 +12598,10 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="58" t="s">
         <v>215</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -12561,8 +12658,8 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
-      <c r="B15" s="73"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="74"/>
       <c r="C15" s="9" t="s">
         <v>173</v>
       </c>
@@ -12617,8 +12714,8 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="72"/>
-      <c r="B16" s="73"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="74"/>
       <c r="C16" s="9" t="s">
         <v>174</v>
       </c>
@@ -12673,8 +12770,8 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="56"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="16" t="s">
         <v>175</v>
       </c>
@@ -12729,17 +12826,17 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
       <c r="J18" s="33"/>
       <c r="K18" s="27" t="str">
         <f t="shared" si="0"/>
@@ -12783,10 +12880,10 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="58" t="s">
         <v>176</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -12843,8 +12940,8 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
-      <c r="B20" s="58"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="9" t="s">
         <v>178</v>
       </c>
@@ -12899,8 +12996,8 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="56"/>
-      <c r="B21" s="59"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="16" t="s">
         <v>179</v>
       </c>
@@ -12955,10 +13052,10 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="58" t="s">
         <v>180</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -13015,8 +13112,8 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
-      <c r="B23" s="58"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="9" t="s">
         <v>182</v>
       </c>
@@ -13073,8 +13170,8 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
-      <c r="B24" s="58"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="9" t="s">
         <v>183</v>
       </c>
@@ -13129,8 +13226,8 @@
       </c>
     </row>
     <row r="25" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="56"/>
-      <c r="B25" s="59"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="16" t="s">
         <v>184</v>
       </c>
@@ -13187,10 +13284,10 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="58" t="s">
         <v>185</v>
       </c>
       <c r="C26" s="12" t="s">
@@ -13247,8 +13344,8 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="70"/>
-      <c r="B27" s="71"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="72"/>
       <c r="C27" s="9" t="s">
         <v>187</v>
       </c>
@@ -13303,8 +13400,8 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="56"/>
-      <c r="B28" s="59"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="16" t="s">
         <v>188</v>
       </c>
@@ -13359,10 +13456,10 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="58" t="s">
         <v>189</v>
       </c>
       <c r="C29" s="12" t="s">
@@ -13419,8 +13516,8 @@
       </c>
     </row>
     <row r="30" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="70"/>
-      <c r="B30" s="71"/>
+      <c r="A30" s="71"/>
+      <c r="B30" s="72"/>
       <c r="C30" s="9" t="s">
         <v>191</v>
       </c>
@@ -13475,8 +13572,8 @@
       </c>
     </row>
     <row r="31" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="70"/>
-      <c r="B31" s="71"/>
+      <c r="A31" s="71"/>
+      <c r="B31" s="72"/>
       <c r="C31" s="9" t="s">
         <v>192</v>
       </c>
@@ -13531,8 +13628,8 @@
       </c>
     </row>
     <row r="32" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="56"/>
-      <c r="B32" s="59"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="16" t="s">
         <v>193</v>
       </c>
@@ -13587,17 +13684,17 @@
       </c>
     </row>
     <row r="33" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="66" t="s">
+      <c r="A33" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
       <c r="J33" s="33"/>
       <c r="K33" s="27" t="str">
         <f t="shared" si="0"/>
@@ -13641,10 +13738,10 @@
       </c>
     </row>
     <row r="34" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="58" t="s">
         <v>195</v>
       </c>
       <c r="C34" s="12" t="s">
@@ -13701,8 +13798,8 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
-      <c r="B35" s="58"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="59"/>
       <c r="C35" s="9" t="s">
         <v>197</v>
       </c>
@@ -13759,8 +13856,8 @@
       </c>
     </row>
     <row r="36" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="56"/>
-      <c r="B36" s="59"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="16" t="s">
         <v>198</v>
       </c>
@@ -13817,10 +13914,10 @@
       </c>
     </row>
     <row r="37" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="58" t="s">
         <v>199</v>
       </c>
       <c r="C37" s="12" t="s">
@@ -13879,8 +13976,8 @@
       </c>
     </row>
     <row r="38" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="70"/>
-      <c r="B38" s="71"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="72"/>
       <c r="C38" s="9" t="s">
         <v>163</v>
       </c>
@@ -13937,8 +14034,8 @@
       </c>
     </row>
     <row r="39" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="70"/>
-      <c r="B39" s="71"/>
+      <c r="A39" s="71"/>
+      <c r="B39" s="72"/>
       <c r="C39" s="9" t="s">
         <v>201</v>
       </c>
@@ -13995,8 +14092,8 @@
       </c>
     </row>
     <row r="40" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
-      <c r="B40" s="58"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="59"/>
       <c r="C40" s="9" t="s">
         <v>202</v>
       </c>
@@ -14053,8 +14150,8 @@
       </c>
     </row>
     <row r="41" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="56"/>
-      <c r="B41" s="59"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="60"/>
       <c r="C41" s="16" t="s">
         <v>203</v>
       </c>
@@ -14109,10 +14206,10 @@
       </c>
     </row>
     <row r="42" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="57" t="s">
+      <c r="B42" s="58" t="s">
         <v>204</v>
       </c>
       <c r="C42" s="12" t="s">
@@ -14171,8 +14268,8 @@
       </c>
     </row>
     <row r="43" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="70"/>
-      <c r="B43" s="71"/>
+      <c r="A43" s="71"/>
+      <c r="B43" s="72"/>
       <c r="C43" s="9" t="s">
         <v>206</v>
       </c>
@@ -14229,8 +14326,8 @@
       </c>
     </row>
     <row r="44" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
-      <c r="B44" s="58"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="59"/>
       <c r="C44" s="9" t="s">
         <v>207</v>
       </c>
@@ -14287,8 +14384,8 @@
       </c>
     </row>
     <row r="45" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="56"/>
-      <c r="B45" s="59"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="16" t="s">
         <v>208</v>
       </c>
@@ -14343,10 +14440,10 @@
       </c>
     </row>
     <row r="46" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="B46" s="57" t="s">
+      <c r="B46" s="58" t="s">
         <v>214</v>
       </c>
       <c r="C46" s="12" t="s">
@@ -14405,8 +14502,8 @@
       </c>
     </row>
     <row r="47" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="70"/>
-      <c r="B47" s="71"/>
+      <c r="A47" s="71"/>
+      <c r="B47" s="72"/>
       <c r="C47" s="9" t="s">
         <v>210</v>
       </c>
@@ -14463,8 +14560,8 @@
       </c>
     </row>
     <row r="48" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="70"/>
-      <c r="B48" s="71"/>
+      <c r="A48" s="71"/>
+      <c r="B48" s="72"/>
       <c r="C48" s="9" t="s">
         <v>211</v>
       </c>
@@ -14521,8 +14618,8 @@
       </c>
     </row>
     <row r="49" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="55"/>
-      <c r="B49" s="58"/>
+      <c r="A49" s="56"/>
+      <c r="B49" s="59"/>
       <c r="C49" s="9" t="s">
         <v>212</v>
       </c>
@@ -14579,8 +14676,8 @@
       </c>
     </row>
     <row r="50" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="56"/>
-      <c r="B50" s="59"/>
+      <c r="A50" s="57"/>
+      <c r="B50" s="60"/>
       <c r="C50" s="16" t="s">
         <v>213</v>
       </c>
@@ -14635,15 +14732,15 @@
       </c>
     </row>
     <row r="51" spans="1:21" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D51" s="67" t="s">
+      <c r="D51" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="E51" s="68"/>
-      <c r="F51" s="69" t="str">
+      <c r="E51" s="69"/>
+      <c r="F51" s="70" t="str">
         <f>IF(AND(T51&gt;(U51/2),Q51=0),ROUNDUP(SUM(S5:S50)*20/U51*10,0)/10,"")</f>
         <v/>
       </c>
-      <c r="G51" s="69"/>
+      <c r="G51" s="70"/>
       <c r="H51" s="35" t="s">
         <v>62</v>
       </c>
@@ -14668,28 +14765,28 @@
       <c r="A52" s="1"/>
     </row>
     <row r="53" spans="1:21" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="49" t="s">
+      <c r="D53" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="E53" s="50"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
       <c r="H53" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="110.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="62" t="s">
+      <c r="A54" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="B54" s="62"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
     </row>
     <row r="55" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="37"/>
@@ -14703,17 +14800,17 @@
       <c r="I55" s="38"/>
     </row>
     <row r="56" spans="1:21" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="62" t="s">
+      <c r="A56" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="62"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="63"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="63"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
     </row>
     <row r="57" spans="1:21" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
@@ -14866,30 +14963,30 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="66"/>
       <c r="J2" s="31"/>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="49" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="61"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="23" t="s">
         <v>29</v>
       </c>
@@ -14909,7 +15006,7 @@
         <v>30</v>
       </c>
       <c r="J3" s="32"/>
-      <c r="K3" s="48"/>
+      <c r="K3" s="49"/>
       <c r="L3" s="5" t="s">
         <v>66</v>
       </c>
@@ -14927,25 +15024,25 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>219</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="33"/>
       <c r="S4" s="7"/>
     </row>
     <row r="5" spans="1:20" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="55" t="s">
         <v>220</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="58" t="s">
         <v>221</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -15002,8 +15099,8 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="B6" s="58"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="9" t="s">
         <v>225</v>
       </c>
@@ -15060,8 +15157,8 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="58"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="9" t="s">
         <v>226</v>
       </c>
@@ -15118,9 +15215,9 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="79"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="41" t="s">
+      <c r="A8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="42" t="s">
         <v>227</v>
       </c>
       <c r="D8" s="19"/>
@@ -15174,8 +15271,8 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56"/>
-      <c r="B9" s="59"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="16" t="s">
         <v>228</v>
       </c>
@@ -15234,10 +15331,10 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="58" t="s">
         <v>222</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -15296,8 +15393,8 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="58"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="9" t="s">
         <v>230</v>
       </c>
@@ -15356,8 +15453,8 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="58"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="9" t="s">
         <v>231</v>
       </c>
@@ -15410,17 +15507,17 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="67" t="s">
         <v>232</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
       <c r="J13" s="33"/>
       <c r="L13" s="6">
         <f t="shared" si="2"/>
@@ -15460,10 +15557,10 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="58" t="s">
         <v>235</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -15520,8 +15617,8 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
-      <c r="B15" s="58"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="9" t="s">
         <v>238</v>
       </c>
@@ -15576,9 +15673,9 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="79"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="41" t="s">
+      <c r="A16" s="80"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="42" t="s">
         <v>239</v>
       </c>
       <c r="D16" s="19"/>
@@ -15586,7 +15683,7 @@
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="34"/>
-      <c r="I16" s="42"/>
+      <c r="I16" s="43"/>
       <c r="J16" s="32"/>
       <c r="K16" s="27" t="str">
         <f t="shared" si="17"/>
@@ -15605,8 +15702,8 @@
       <c r="S16" s="7"/>
     </row>
     <row r="17" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="56"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="16" t="s">
         <v>240</v>
       </c>
@@ -15661,10 +15758,10 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="55" t="s">
         <v>234</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="58" t="s">
         <v>236</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -15721,8 +15818,8 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="B19" s="58"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="9" t="s">
         <v>242</v>
       </c>
@@ -15779,8 +15876,8 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
-      <c r="B20" s="58"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="9" t="s">
         <v>243</v>
       </c>
@@ -15835,9 +15932,9 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="79"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="41" t="s">
+      <c r="A21" s="80"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="42" t="s">
         <v>244</v>
       </c>
       <c r="D21" s="19"/>
@@ -15891,8 +15988,8 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="56"/>
-      <c r="B22" s="59"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="16" t="s">
         <v>245</v>
       </c>
@@ -15949,17 +16046,17 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="75" t="s">
         <v>246</v>
       </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="76"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="77"/>
       <c r="J23" s="32"/>
       <c r="L23" s="6">
         <f t="shared" ref="L23" si="27">IF(ISBLANK(D23),1,0)</f>
@@ -15999,10 +16096,10 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="55" t="s">
         <v>247</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="58" t="s">
         <v>250</v>
       </c>
       <c r="C24" s="12" t="s">
@@ -16059,8 +16156,8 @@
       </c>
     </row>
     <row r="25" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="70"/>
-      <c r="B25" s="71"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="72"/>
       <c r="C25" s="9" t="s">
         <v>254</v>
       </c>
@@ -16115,8 +16212,8 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="56"/>
-      <c r="B26" s="59"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="16" t="s">
         <v>255</v>
       </c>
@@ -16171,20 +16268,20 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="78" t="s">
         <v>248</v>
       </c>
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="79" t="s">
         <v>251</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="44" t="s">
         <v>256</v>
       </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="46"/>
       <c r="I27" s="22">
         <v>1</v>
       </c>
@@ -16231,16 +16328,16 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="72"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="43" t="s">
+      <c r="A28" s="73"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="46"/>
       <c r="I28" s="22">
         <v>1</v>
       </c>
@@ -16287,16 +16384,16 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="72"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="43" t="s">
+      <c r="A29" s="73"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="44" t="s">
         <v>258</v>
       </c>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="46"/>
       <c r="I29" s="22">
         <v>1</v>
       </c>
@@ -16343,10 +16440,10 @@
       </c>
     </row>
     <row r="30" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="58" t="s">
         <v>252</v>
       </c>
       <c r="C30" s="12" t="s">
@@ -16403,8 +16500,8 @@
       </c>
     </row>
     <row r="31" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="70"/>
-      <c r="B31" s="71"/>
+      <c r="A31" s="71"/>
+      <c r="B31" s="72"/>
       <c r="C31" s="9" t="s">
         <v>260</v>
       </c>
@@ -16459,8 +16556,8 @@
       </c>
     </row>
     <row r="32" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="70"/>
-      <c r="B32" s="71"/>
+      <c r="A32" s="71"/>
+      <c r="B32" s="72"/>
       <c r="C32" s="9" t="s">
         <v>261</v>
       </c>
@@ -16515,9 +16612,9 @@
       </c>
     </row>
     <row r="33" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="72"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="41" t="s">
+      <c r="A33" s="73"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="42" t="s">
         <v>262</v>
       </c>
       <c r="D33" s="19"/>
@@ -16525,7 +16622,7 @@
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
       <c r="H33" s="34"/>
-      <c r="I33" s="42"/>
+      <c r="I33" s="43"/>
       <c r="J33" s="32"/>
       <c r="K33" s="27" t="str">
         <f t="shared" si="36"/>
@@ -16569,8 +16666,8 @@
       </c>
     </row>
     <row r="34" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="56"/>
-      <c r="B34" s="59"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="60"/>
       <c r="C34" s="16" t="s">
         <v>263</v>
       </c>
@@ -16625,17 +16722,17 @@
       </c>
     </row>
     <row r="35" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="66" t="s">
+      <c r="A35" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
       <c r="J35" s="33"/>
       <c r="K35" s="27" t="str">
         <f t="shared" si="36"/>
@@ -16679,10 +16776,10 @@
       </c>
     </row>
     <row r="36" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="55" t="s">
         <v>264</v>
       </c>
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="58" t="s">
         <v>265</v>
       </c>
       <c r="C36" s="12" t="s">
@@ -16741,8 +16838,8 @@
       </c>
     </row>
     <row r="37" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="70"/>
-      <c r="B37" s="71"/>
+      <c r="A37" s="71"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="9" t="s">
         <v>267</v>
       </c>
@@ -16799,8 +16896,8 @@
       </c>
     </row>
     <row r="38" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="70"/>
-      <c r="B38" s="71"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="72"/>
       <c r="C38" s="9" t="s">
         <v>268</v>
       </c>
@@ -16857,8 +16954,8 @@
       </c>
     </row>
     <row r="39" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
-      <c r="B39" s="58"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="59"/>
       <c r="C39" s="9" t="s">
         <v>269</v>
       </c>
@@ -16915,8 +17012,8 @@
       </c>
     </row>
     <row r="40" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="56"/>
-      <c r="B40" s="59"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="60"/>
       <c r="C40" s="16" t="s">
         <v>270</v>
       </c>
@@ -16971,15 +17068,15 @@
       </c>
     </row>
     <row r="41" spans="1:21" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="67" t="s">
+      <c r="D41" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="68"/>
-      <c r="F41" s="69" t="str">
+      <c r="E41" s="69"/>
+      <c r="F41" s="70" t="str">
         <f>IF(AND(T41&gt;(U41/2),Q41=0),ROUNDUP(SUM(S5:S40)*20/U41*10,0)/10,"")</f>
         <v/>
       </c>
-      <c r="G41" s="69"/>
+      <c r="G41" s="70"/>
       <c r="H41" s="35" t="s">
         <v>62</v>
       </c>
@@ -17004,28 +17101,28 @@
       <c r="A42" s="1"/>
     </row>
     <row r="43" spans="1:21" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="49" t="s">
+      <c r="D43" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="E43" s="50"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
       <c r="H43" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="110.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="62" t="s">
+      <c r="A44" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="62"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="63"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
     </row>
     <row r="45" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="39"/>
@@ -17039,17 +17136,17 @@
       <c r="I45" s="40"/>
     </row>
     <row r="46" spans="1:21" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="62" t="s">
+      <c r="A46" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="62"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="63"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="64"/>
     </row>
     <row r="47" spans="1:21" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
